--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-01-04</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2059,6 +2059,12 @@
   </si>
   <si>
     <t>translation_sql</t>
+  </si>
+  <si>
+    <t>encrypt_field</t>
+  </si>
+  <si>
+    <t>public_flag</t>
   </si>
   <si>
     <t>hpfm_lov-8</t>
@@ -3425,7 +3431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3523,109 +3529,127 @@
       <c r="V7" t="s">
         <v>71</v>
       </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
+      <c r="T9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
-      </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -3636,28 +3660,28 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s" s="43">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s" s="44">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s" s="45">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s" s="46">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
         <v>60</v>
@@ -3669,19 +3693,19 @@
         <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s" s="48">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
         <v>70</v>
@@ -3689,161 +3713,161 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" t="s">
         <v>80</v>
-      </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" t="s">
-        <v>106</v>
-      </c>
-      <c r="S16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" t="s">
         <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" t="s">
-        <v>110</v>
-      </c>
-      <c r="S17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
         <v>44</v>
@@ -3852,158 +3876,158 @@
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4014,25 +4038,25 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s" s="49">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s" s="50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s" s="51">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s" s="52">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s" s="53">
         <v>62</v>
@@ -4044,25 +4068,25 @@
         <v>68</v>
       </c>
       <c r="M26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T26" t="s">
         <v>70</v>
@@ -4070,43 +4094,43 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I27">
         <f>值集数据!$E$10</f>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -4117,43 +4141,43 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s" s="54">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s" s="55">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s" s="56">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s" s="57">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="58">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P29" t="s">
         <v>70</v>
@@ -4161,78 +4185,78 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$27</f>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <f>值集数据!$E$10</f>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$27</f>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H31">
         <f>值集数据!$E$10</f>
       </c>
       <c r="I31" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" t="s">
+        <v>151</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
         <v>167</v>
       </c>
-      <c r="J31" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" t="s">
-        <v>149</v>
-      </c>
-      <c r="M31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" t="s">
-        <v>165</v>
-      </c>
       <c r="P31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="270">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2067,9 +2070,260 @@
     <t>public_flag</t>
   </si>
   <si>
+    <t>decrypt_field</t>
+  </si>
+  <si>
     <t>hpfm_lov-8</t>
   </si>
   <si>
+    <t>HMNT.AUDIT.ROLE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>hmnt</t>
+  </si>
+  <si>
+    <t>审计配置角色查询</t>
+  </si>
+  <si>
+    <t>Audit configuration role query</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
+SELECT 
+	ir.id,
+	ir.code,
+	htt.tenant_name,
+	irt.name
+FROM iam_role ir
+JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
+JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
+&lt;where&gt;
+&lt;if test="excludeConfigured"&gt;
+NOT EXISTS(SELECT 1 
+		    FROM hzero_monitor.hmnt_audit_op_config haoc 
+		    WHERE haoc.role_id = ir.id
+			 AND haoc.tenant_id = #{tenantId})
+&lt;/if&gt;
+&lt;if test="name != null and name != ''"&gt;
+  &lt;bind name="nameLike" value="%' + name + '%'"/&gt;
+	AND ir.name LIKE #{nameLike}
+&lt;/if&gt;
+&lt;if test="code != null and code != ''"&gt;
+  &lt;bind name="codeLike" value="%' + code + '%'"/&gt;
+	AND ir.code LIKE #{codeLike}
+&lt;/if&gt;
+&lt;if test="tenantId != null"&gt;
+	AND ir.h_tenant_id = #{tenantId}
+&lt;/if&gt;
+&lt;/where&gt;</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>hpfm_lov-9</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT.TR_ROLE</t>
+  </si>
+  <si>
+    <t>三员审计角色</t>
+  </si>
+  <si>
+    <t>Three-member audit role</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
+&lt;bind name="siteSystemRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isSiteSystemRole()"/&gt;
+&lt;bind name="siteSecrecyRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isSiteSecrecyRole()"/&gt;
+&lt;bind name="siteAuditRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isSiteAuditRole()"/&gt;
+&lt;bind name="systemRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isSystemRole()"/&gt;
+&lt;bind name="secrecyRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isSecrecyRole()"/&gt;
+&lt;bind name="auditRole" value="@org.hzero.plugin.tr.boot.ThreeRoleValidator@isAuditRole()"/&gt;
+SELECT 
+	ir.id,
+	ir.code,
+	htt.tenant_name,
+	irt.name
+FROM iam_role ir
+JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
+JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
+&lt;where&gt;
+&lt;choose&gt;
+    &lt;when test="systemRole or siteSystemRole"&gt;
+        &lt;!-- 系统管理员： 查看普通用户的审计日志，不能查看三员的日志 --&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM iam_label il
+                        JOIN hiam_label_rel hlr ON hlr.label_id = il.id AND hlr.data_type = 'ROLE'
+                        WHERE il.name IN ('TR_SYSTEM_ROLE', 'TR_SECRECY_ROLE', 'TR_AUDIT_ROLE', 'SITE_TR_SYSTEM_ROLE', 'SITE_TR_SECRECY_ROLE', 'SITE_TR_AUDIT_ROLE')
+                            AND hlr.data_id = ir.id)
+    &lt;/when&gt;
+    &lt;when test="secrecyRole or siteSecrecyRole"&gt;
+        &lt;!-- 安全保密员：查看普通用户、安全审计员的审计日志信息，不能查看系统管理员和自己的审计日志 --&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM iam_label il
+                        JOIN hiam_label_rel hlr ON hlr.label_id = il.id AND hlr.data_type = 'ROLE'
+                        WHERE il.name IN ('TR_SYSTEM_ROLE', 'TR_SECRECY_ROLE', 'SITE_TR_SYSTEM_ROLE', 'SITE_TR_SECRECY_ROLE')
+                            AND hlr.data_id = ir.id)
+    &lt;/when&gt;
+    &lt;when test="auditRole or siteAuditRole"&gt;
+        &lt;!-- 安全审计员：查看系统管理员和安全保密员的审计日志 --&gt;
+        AND EXISTS (SELECT 1
+                    FROM iam_label il
+                    JOIN hiam_label_rel hlr ON hlr.label_id = il.id AND hlr.data_type = 'ROLE'
+                    WHERE il.name IN ('TR_SYSTEM_ROLE', 'TR_SECRECY_ROLE', 'SITE_TR_SYSTEM_ROLE', 'SITE_TR_SECRECY_ROLE')
+                        AND hlr.data_id = ir.id)
+    &lt;/when&gt;
+    &lt;otherwise&gt;
+        AND 1 = 2
+    &lt;/otherwise&gt;
+&lt;/choose&gt;                              
+&lt;if test="name != null and name != ''"&gt;
+  &lt;bind name="nameLike" value="%' + name + '%'"/&gt;
+	AND ir.name LIKE #{nameLike}
+&lt;/if&gt;
+&lt;if test="code != null and code != ''"&gt;
+  &lt;bind name="codeLike" value="%' + code + '%'"/&gt;
+	AND ir.code LIKE #{codeLike}
+&lt;/if&gt;
+&lt;if test="tenantId != null"&gt;
+	AND ir.h_tenant_id = #{tenantId}
+&lt;/if&gt;
+&lt;/where&gt;</t>
+  </si>
+  <si>
+    <t>hpfm_lov-10</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_DATA.OP</t>
+  </si>
+  <si>
+    <t>查询数据审计可关联操作审计</t>
+  </si>
+  <si>
+    <t>Query data audit can be associated with operation audit</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()" /&gt;
+SELECT 
+  t.audit_op_config_id,
+  t.audit_type,
+  t.operational_content,
+  hlvt.meaning audit_type_meaning
+FROM (SELECT
+        haoc.audit_op_config_id,
+        haoc.audit_type,
+        ipt.description operational_content 
+      FROM
+        hmnt_audit_op_config haoc
+        JOIN iam_permission_tl ipt ON ipt.id = haoc.permission_id AND ipt.lang = #{lang}
+      WHERE
+        haoc.tenant_id = #{tenantId}
+        AND haoc.audit_type = 'API'
+    &lt;if test="auditType != null and auditType != ''"&gt;
+        AND haoc.audit_type = #{auditType}
+    &lt;/if&gt;
+    &lt;if test="operationalContent != null and operationalContent != ''"&gt;
+        &lt;bind name="operationalContentLike" value="'%' + operationalContent + '%'"/&gt;
+        AND ipt.description LIKE #{operationalContentLike}
+    &lt;/if&gt;
+    &lt;if test="auditDataConfigId != null"&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM hmnt_audit_rel har
+                        WHERE har.audit_data_config_id = #{auditDataConfigId}
+                          AND har.audit_op_config_id = haoc.audit_op_config_id AND har.tenant_id = #{tenantId})
+    &lt;/if&gt;
+      UNION ALL
+      SELECT
+        haoc.audit_op_config_id,
+        haoc.audit_type,
+        iu.login_name operational_content 
+      FROM
+        hmnt_audit_op_config haoc
+        JOIN iam_user iu ON iu.id = haoc.user_id 
+      WHERE
+        haoc.tenant_id = #{tenantId}
+        AND haoc.audit_type = 'USER' 
+    &lt;if test="auditType != null and auditType != ''"&gt;
+        AND haoc.audit_type = #{auditType}
+    &lt;/if&gt;
+    &lt;if test="operationalContent != null and operationalContent != ''"&gt;
+        &lt;bind name="operationalContentLike" value="'%' + operationalContent + '%'"/&gt;
+        AND iu.login_name LIKE #{operationalContentLike}
+    &lt;/if&gt;
+    &lt;if test="auditDataConfigId != null"&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM hmnt_audit_rel har
+                        WHERE har.audit_data_config_id = #{auditDataConfigId}
+                          AND har.audit_op_config_id = haoc.audit_op_config_id AND har.tenant_id = #{tenantId})
+    &lt;/if&gt;
+      UNION ALL
+      SELECT
+        haoc.audit_op_config_id,
+        haoc.audit_type,
+        irt.name operational_content 
+      FROM
+        hmnt_audit_op_config haoc
+        JOIN iam_role_tl irt ON irt.id = haoc.role_id AND irt.lang = #{lang}
+      WHERE
+        haoc.tenant_id = #{tenantId}
+        AND haoc.audit_type = 'ROLE' 
+    &lt;if test="auditType != null and auditType != ''"&gt;
+        AND haoc.audit_type = #{auditType}
+    &lt;/if&gt;
+    &lt;if test="operationalContent != null and operationalContent != ''"&gt;
+        &lt;bind name="operationalContentLike" value="'%' + operationalContent + '%'"/&gt;
+        AND irt.name LIKE #{operationalContentLike}
+    &lt;/if&gt;
+    &lt;if test="auditDataConfigId != null"&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM hmnt_audit_rel har
+                        WHERE har.audit_data_config_id = #{auditDataConfigId}
+                          AND har.audit_op_config_id = haoc.audit_op_config_id AND har.tenant_id = #{tenantId})
+    &lt;/if&gt;
+      UNION ALL
+      SELECT
+        haoc.audit_op_config_id,
+        haoc.audit_type,
+        haoc.client_name operational_content 
+      FROM
+        hmnt_audit_op_config haoc
+       WHERE
+        haoc.tenant_id = #{tenantId}
+        AND haoc.audit_type = 'CLIENT'
+    &lt;if test="auditType != null and auditType != ''"&gt;
+        AND haoc.audit_type = #{auditType}
+    &lt;/if&gt;
+    &lt;if test="operationalContent != null and operationalContent != ''"&gt;
+        &lt;bind name="operationalContentLike" value="'%' + operationalContent + '%'"/&gt;
+        AND haoc.client_name LIKE #{operationalContentLike}
+    &lt;/if&gt;
+    &lt;if test="auditDataConfigId != null"&gt;
+        AND NOT EXISTS (SELECT 1
+                        FROM hmnt_audit_rel har
+                        WHERE har.audit_data_config_id = #{auditDataConfigId}
+                          AND har.audit_op_config_id = haoc.audit_op_config_id AND har.tenant_id = #{tenantId})
+    &lt;/if&gt;
+    ) t
+JOIN hpfm_lov_value hlv ON hlv.lov_code = 'HMNT.AUDIT_OP.TYPE' AND hlv.value = t.audit_type
+JOIN hpfm_lov_value_tl hlvt ON hlvt.lov_value_id = hlv.lov_value_id AND hlvt.lang = #{lang}</t>
+  </si>
+  <si>
+    <t>auditOpConfigId</t>
+  </si>
+  <si>
+    <t>hpfm_lov-11</t>
+  </si>
+  <si>
     <t>HMNT.AUDIT_LOG_TYPE</t>
   </si>
   <si>
@@ -2082,13 +2336,59 @@
     <t>Operational audit log type</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_lov-9</t>
+    <t>hpfm_lov-12</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP.DATA</t>
+  </si>
+  <si>
+    <t>查询操作审计可关联数据审计</t>
+  </si>
+  <si>
+    <t>Query operation audit can be associated with data audit</t>
+  </si>
+  <si>
+    <t>SELECT
+	hadc.audit_data_config_id,
+	hadc.tenant_id,
+	hadc.service_name,
+	hadc.table_name,
+	hadc.display_name
+FROM hmnt_audit_data_config hadc
+WHERE hadc.tenant_id = #{tenantId}
+    &lt;if test="tableName != null and tableName != ''"&gt;
+        &lt;bind name="tableNameLike" value="'%' + tableName + '%'"/&gt;
+	AND hadc.table_name LIKE #{tableNameLike}
+    &lt;/if&gt;
+    &lt;if test="serviceName != null and serviceName != ''"&gt;
+        &lt;bind name="serviceNameLike" value="'%' + serviceName + '%'"/&gt;
+	AND hadc.service_name LIKE #{serviceNameLike}
+    &lt;/if&gt;
+    &lt;if test="displayName != null and displayName != ''"&gt;
+        &lt;bind name="displayNameLike" value="'%' + displayName + '%'"/&gt;
+	AND hadc.display_name LIKE #{displayNameLike}
+    &lt;/if&gt;
+    &lt;if test="auditOpConfigId != null"&gt;
+	AND NOT EXISTS (SELECT 1
+                        FROM hmnt_audit_rel har
+                        WHERE har.audit_op_config_id = #{auditOpConfigId}
+                                AND har.audit_data_config_id = hadc.audit_data_config_id AND har.tenant_id = #{tenantId})
+    &lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>auditDataConfigId</t>
+  </si>
+  <si>
+    <t>hpfm_lov-13</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP.TYPE</t>
+  </si>
+  <si>
+    <t>操作审计类型</t>
+  </si>
+  <si>
+    <t>hpfm_lov-14</t>
   </si>
   <si>
     <t>HMNT.AUDIT_RESULT</t>
@@ -2100,7 +2400,7 @@
     <t>Operational audit results</t>
   </si>
   <si>
-    <t>hpfm_lov-10</t>
+    <t>hpfm_lov-15</t>
   </si>
   <si>
     <t>HMNT.COLUMN.DISPLAY_TYPE</t>
@@ -2109,7 +2409,7 @@
     <t>字段展示类型</t>
   </si>
   <si>
-    <t>hpfm_lov-11</t>
+    <t>hpfm_lov-16</t>
   </si>
   <si>
     <t>HMNT.DATA_AUDIT_TYPE</t>
@@ -2118,6 +2418,44 @@
     <t>数据审计类型</t>
   </si>
   <si>
+    <t>hpfm_lov-17</t>
+  </si>
+  <si>
+    <t>HMNT.DOCUMENT</t>
+  </si>
+  <si>
+    <t>单据审计</t>
+  </si>
+  <si>
+    <t>Document audit</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()" /&gt;
+SELECT
+	had.audit_document_id,
+	had.document_code,
+	had.document_name,
+    htt.tenant_name
+FROM hmnt_audit_document had
+JOIN hpfm_tenant_tl htt ON htt.tenant_id = had.tenant_id AND htt.lang = #{lang}
+&lt;where&gt;
+    &lt;if test="tenantId != null"&gt;
+        htt.tenant_id = #{tenantId}
+    &lt;/if&gt;
+    &lt;if test="documentCode != null and documentCode != ''"&gt;
+        &lt;bind name="documentCodeLike" value="'%' + documentCode + '%'"/&gt;
+        AND had.document_code LIKE #{documentCodeLike}
+    &lt;/if&gt;
+    &lt;if test="documentName != null and documentName != ''"&gt;
+        &lt;bind name="documentNameLike" value="'%' + documentName + '%'"/&gt;
+        AND had.document_name LIKE #{documentNameLike}
+    &lt;/if&gt;
+&lt;/where&gt;</t>
+  </si>
+  <si>
+    <t>auditDocumentId</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2184,6 +2522,45 @@
     <t>20</t>
   </si>
   <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>SUCCESS</t>
   </si>
   <si>
@@ -2214,18 +2591,12 @@
     <t>字符串</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>NUMBER</t>
   </si>
   <si>
     <t>数字</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>INSERT</t>
   </si>
   <si>
@@ -2292,7 +2663,28 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-27</t>
+    <t>hpfm_lov_view_header-37</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-38</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-39</t>
+  </si>
+  <si>
+    <t>operationalContent</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-40</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-41</t>
   </si>
   <si>
     <t>审计数据字段展示类型</t>
@@ -2307,6 +2699,12 @@
     <t>选择字段展示类型</t>
   </si>
   <si>
+    <t>hpfm_lov_view_header-42</t>
+  </si>
+  <si>
+    <t>documentName</t>
+  </si>
+  <si>
     <t>值集查询视图行表</t>
   </si>
   <si>
@@ -2319,9 +2717,6 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
     <t>display:zh_CN</t>
   </si>
   <si>
@@ -2340,7 +2735,109 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-30</t>
+    <t>hpfm_lov_view_line-45</t>
+  </si>
+  <si>
+    <t>角色编码</t>
+  </si>
+  <si>
+    <t>Role coding</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-46</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>Role name</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-47</t>
+  </si>
+  <si>
+    <t>Role code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-48</t>
+  </si>
+  <si>
+    <t>ロール名</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-49</t>
+  </si>
+  <si>
+    <t>审计类型</t>
+  </si>
+  <si>
+    <t>Audit type</t>
+  </si>
+  <si>
+    <t>auditType</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-50</t>
+  </si>
+  <si>
+    <t>auditTypeMeaning</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-51</t>
+  </si>
+  <si>
+    <t>操作内容</t>
+  </si>
+  <si>
+    <t>Operation content</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-52</t>
+  </si>
+  <si>
+    <t>展示名称</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-53</t>
+  </si>
+  <si>
+    <t>服务名称</t>
+  </si>
+  <si>
+    <t>Service name</t>
+  </si>
+  <si>
+    <t>serviceName</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-54</t>
+  </si>
+  <si>
+    <t>表名称</t>
+  </si>
+  <si>
+    <t>Table name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-55</t>
   </si>
   <si>
     <t>名称</t>
@@ -2349,10 +2846,43 @@
     <t>120</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-31</t>
+    <t>hpfm_lov_view_line-56</t>
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-57</t>
+  </si>
+  <si>
+    <t>单据审计编码</t>
+  </si>
+  <si>
+    <t>Document audit code</t>
+  </si>
+  <si>
+    <t>documentCode</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-58</t>
+  </si>
+  <si>
+    <t>单据审计名称</t>
+  </si>
+  <si>
+    <t>Document audit name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-59</t>
+  </si>
+  <si>
+    <t>租户名称</t>
+  </si>
+  <si>
+    <t>Tenant name</t>
+  </si>
+  <si>
+    <t>tenantName</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2890,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2536,12 +3066,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2582,6 +3122,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2752,7 +3297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2846,6 +3391,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3431,7 +3979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3502,7 +4050,7 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -3535,728 +4083,1894 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="V8" t="s">
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>90</v>
       </c>
       <c r="U9" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
       </c>
       <c r="U10" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
-        <v>79</v>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s" s="43">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s" s="44">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s" s="45">
-        <v>94</v>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s" s="46">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" t="s" s="47">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s" s="48">
-        <v>101</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R13" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14">
-        <f>值集数据!$E$8</f>
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15">
-        <f>值集数据!$E$8</f>
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16">
-        <f>值集数据!$E$9</f>
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" t="s">
-        <v>108</v>
-      </c>
-      <c r="S16" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17">
-        <f>值集数据!$E$9</f>
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19">
-        <f>值集数据!$E$10</f>
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s" s="44">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s" s="45">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s" s="46">
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="H19" t="s" s="47">
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" t="s" s="48">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s" s="49">
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" t="s" s="50">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>138</v>
       </c>
       <c r="S19" t="s">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="T19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F20">
-        <f>值集数据!$E$10</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>123</v>
-      </c>
-      <c r="S20" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F21">
-        <f>值集数据!$E$10</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" t="s">
-        <v>126</v>
-      </c>
-      <c r="S21" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s">
+        <v>148</v>
+      </c>
+      <c r="T21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>131</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>148</v>
+      </c>
+      <c r="T23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F24">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>134</v>
-      </c>
-      <c r="S24" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s">
+        <v>157</v>
+      </c>
+      <c r="T24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25">
+        <f>值集数据!$E$13</f>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s" s="49">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s" s="50">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s" s="51">
-        <v>138</v>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26">
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" t="s" s="52">
-        <v>141</v>
-      </c>
-      <c r="J26" t="s" s="53">
-        <v>62</v>
-      </c>
-      <c r="K26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>68</v>
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>143</v>
-      </c>
-      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s">
         <v>144</v>
       </c>
-      <c r="P26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>146</v>
-      </c>
-      <c r="R26" t="s">
-        <v>147</v>
-      </c>
-      <c r="S26" t="s">
-        <v>148</v>
-      </c>
       <c r="T26" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
+        <v>140</v>
+      </c>
+      <c r="F27">
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27">
-        <f>值集数据!$E$10</f>
+        <v>165</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" t="s">
-        <v>151</v>
-      </c>
-      <c r="L27" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>108</v>
-      </c>
-      <c r="R27" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="P27" t="s">
+        <v>148</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s">
+        <v>144</v>
+      </c>
+      <c r="T28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" t="s" s="54">
-        <v>155</v>
-      </c>
-      <c r="E29" t="s" s="55">
-        <v>156</v>
-      </c>
-      <c r="F29" t="s" s="56">
-        <v>157</v>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29">
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" t="s" s="57">
-        <v>141</v>
+        <v>116</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" t="s" s="58">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
-      </c>
-      <c r="O29" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>70</v>
+        <v>148</v>
+      </c>
+      <c r="T29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F30">
-        <f>值集数据!$E$27</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30">
-        <f>值集数据!$E$10</f>
+        <v>116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
-      </c>
-      <c r="K30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>157</v>
+      </c>
+      <c r="T30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F31">
-        <f>值集数据!$E$27</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="s">
+        <v>178</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s" s="51">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s" s="52">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s" s="53">
+        <v>185</v>
+      </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" t="s" s="54">
+        <v>188</v>
+      </c>
+      <c r="J36" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K36" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" t="s">
+        <v>189</v>
+      </c>
+      <c r="O36" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" t="s">
+        <v>193</v>
+      </c>
+      <c r="S36" t="s">
+        <v>194</v>
+      </c>
+      <c r="T36" t="s">
+        <v>195</v>
+      </c>
+      <c r="U36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <f>值集数据!$E$8</f>
+      </c>
+      <c r="J37" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" t="s">
+        <v>197</v>
+      </c>
+      <c r="R37" t="s">
+        <v>144</v>
+      </c>
+      <c r="S37" t="s">
+        <v>82</v>
+      </c>
+      <c r="U37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38">
+        <f>值集数据!$E$9</f>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" t="s">
+        <v>197</v>
+      </c>
+      <c r="R38" t="s">
+        <v>144</v>
+      </c>
+      <c r="S38" t="s">
+        <v>82</v>
+      </c>
+      <c r="U38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
         <f>值集数据!$E$10</f>
       </c>
-      <c r="I31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" t="s">
-        <v>169</v>
-      </c>
-      <c r="K31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" t="s">
-        <v>151</v>
-      </c>
-      <c r="M31" t="s">
-        <v>79</v>
-      </c>
-      <c r="N31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" t="s">
-        <v>167</v>
-      </c>
-      <c r="P31" t="s">
-        <v>80</v>
+      <c r="J39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>200</v>
+      </c>
+      <c r="N39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="R39" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" t="s">
+        <v>82</v>
+      </c>
+      <c r="U39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40">
+        <f>值集数据!$E$12</f>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s">
+        <v>202</v>
+      </c>
+      <c r="N40" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" t="s">
+        <v>105</v>
+      </c>
+      <c r="R40" t="s">
+        <v>144</v>
+      </c>
+      <c r="S40" t="s">
+        <v>82</v>
+      </c>
+      <c r="U40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="J41" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" t="s">
+        <v>207</v>
+      </c>
+      <c r="R41" t="s">
+        <v>144</v>
+      </c>
+      <c r="S41" t="s">
+        <v>82</v>
+      </c>
+      <c r="U41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s">
+        <v>209</v>
+      </c>
+      <c r="R42" t="s">
+        <v>144</v>
+      </c>
+      <c r="S42" t="s">
+        <v>82</v>
+      </c>
+      <c r="U42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s" s="57">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s" s="58">
+        <v>212</v>
+      </c>
+      <c r="F44" t="s" s="59">
+        <v>213</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s" s="60">
+        <v>188</v>
+      </c>
+      <c r="J44" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" t="s" s="61">
+        <v>216</v>
+      </c>
+      <c r="N44" t="s">
+        <v>217</v>
+      </c>
+      <c r="O44" t="s">
+        <v>218</v>
+      </c>
+      <c r="P44" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45">
+        <f>值集数据!$E$37</f>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45">
+        <f>值集数据!$E$8</f>
+      </c>
+      <c r="J45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" t="s">
+        <v>223</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46">
+        <f>值集数据!$E$37</f>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <f>值集数据!$E$8</f>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" t="s">
+        <v>227</v>
+      </c>
+      <c r="L46" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" t="s">
+        <v>197</v>
+      </c>
+      <c r="N46" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47">
+        <f>值集数据!$E$38</f>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47">
+        <f>值集数据!$E$9</f>
+      </c>
+      <c r="J47" t="s">
+        <v>221</v>
+      </c>
+      <c r="K47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>223</v>
+      </c>
+      <c r="N47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48">
+        <f>值集数据!$E$38</f>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48">
+        <f>值集数据!$E$9</f>
+      </c>
+      <c r="J48" t="s">
+        <v>226</v>
+      </c>
+      <c r="K48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" t="s">
+        <v>148</v>
+      </c>
+      <c r="M48" t="s">
+        <v>197</v>
+      </c>
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49">
+        <f>值集数据!$E$39</f>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49">
+        <f>值集数据!$E$10</f>
+      </c>
+      <c r="J49" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" t="s">
+        <v>235</v>
+      </c>
+      <c r="L49" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" t="s">
+        <v>236</v>
+      </c>
+      <c r="N49" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50">
+        <f>值集数据!$E$39</f>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50">
+        <f>值集数据!$E$10</f>
+      </c>
+      <c r="J50" t="s">
+        <v>234</v>
+      </c>
+      <c r="K50" t="s">
+        <v>235</v>
+      </c>
+      <c r="L50" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" t="s">
+        <v>239</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51">
+        <f>值集数据!$E$39</f>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <f>值集数据!$E$10</f>
+      </c>
+      <c r="J51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K51" t="s">
+        <v>242</v>
+      </c>
+      <c r="L51" t="s">
+        <v>157</v>
+      </c>
+      <c r="M51" t="s">
+        <v>200</v>
+      </c>
+      <c r="N51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52">
+        <f>值集数据!$E$40</f>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <f>值集数据!$E$12</f>
+      </c>
+      <c r="J52" t="s">
+        <v>244</v>
+      </c>
+      <c r="K52" t="s">
+        <v>245</v>
+      </c>
+      <c r="L52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M52" t="s">
+        <v>246</v>
+      </c>
+      <c r="N52" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53">
+        <f>值集数据!$E$40</f>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53">
+        <f>值集数据!$E$12</f>
+      </c>
+      <c r="J53" t="s">
+        <v>248</v>
+      </c>
+      <c r="K53" t="s">
+        <v>249</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" t="s">
+        <v>250</v>
+      </c>
+      <c r="N53" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54">
+        <f>值集数据!$E$40</f>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54">
+        <f>值集数据!$E$12</f>
+      </c>
+      <c r="J54" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" t="s">
+        <v>253</v>
+      </c>
+      <c r="L54" t="s">
+        <v>148</v>
+      </c>
+      <c r="M54" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55">
+        <f>值集数据!$E$41</f>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="J55" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" t="s">
+        <v>255</v>
+      </c>
+      <c r="L55" t="s">
+        <v>178</v>
+      </c>
+      <c r="M55" t="s">
+        <v>206</v>
+      </c>
+      <c r="N55" t="s">
+        <v>82</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56">
+        <f>值集数据!$E$41</f>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <f>值集数据!$E$15</f>
+      </c>
+      <c r="J56" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" t="s">
+        <v>258</v>
+      </c>
+      <c r="L56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>82</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57">
+        <f>值集数据!$E$42</f>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J57" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57" t="s">
+        <v>261</v>
+      </c>
+      <c r="L57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" t="s">
+        <v>262</v>
+      </c>
+      <c r="N57" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" t="s">
+        <v>84</v>
+      </c>
+      <c r="P57" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>263</v>
+      </c>
+      <c r="F58">
+        <f>值集数据!$E$42</f>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J58" t="s">
+        <v>264</v>
+      </c>
+      <c r="K58" t="s">
+        <v>265</v>
+      </c>
+      <c r="L58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59">
+        <f>值集数据!$E$42</f>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J59" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" t="s">
+        <v>268</v>
+      </c>
+      <c r="L59" t="s">
+        <v>82</v>
+      </c>
+      <c r="M59" t="s">
+        <v>269</v>
+      </c>
+      <c r="N59" t="s">
+        <v>82</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="284">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-11-17</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,10 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2388,6 +2388,9 @@
     <t>操作审计类型</t>
   </si>
   <si>
+    <t>Operation Audit Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-14</t>
   </si>
   <si>
@@ -2409,6 +2412,9 @@
     <t>字段展示类型</t>
   </si>
   <si>
+    <t>Field Display Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-16</t>
   </si>
   <si>
@@ -2416,6 +2422,9 @@
   </si>
   <si>
     <t>数据审计类型</t>
+  </si>
+  <si>
+    <t>Data Audit Type</t>
   </si>
   <si>
     <t>hpfm_lov-17</t>
@@ -2585,30 +2594,45 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>STR</t>
   </si>
   <si>
     <t>字符串</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>NUMBER</t>
   </si>
   <si>
     <t>数字</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>INSERT</t>
   </si>
   <si>
     <t>新增</t>
   </si>
   <si>
+    <t>Add</t>
+  </si>
+  <si>
     <t>UPDATE</t>
   </si>
   <si>
     <t>更新</t>
   </si>
   <si>
+    <t>Update</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -2618,6 +2642,9 @@
     <t>删除</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -2690,6 +2717,9 @@
     <t>审计数据字段展示类型</t>
   </si>
   <si>
+    <t>Audit Data Field Display Type</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -2717,6 +2747,12 @@
     <t>#view_header_id</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
     <t>display:zh_CN</t>
   </si>
   <si>
@@ -2771,7 +2807,7 @@
     <t>hpfm_lov_view_line-48</t>
   </si>
   <si>
-    <t>ロール名</t>
+    <t>Role Name</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-49</t>
@@ -2843,6 +2879,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
@@ -2850,6 +2889,9 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>Types Of</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-57</t>
@@ -4297,7 +4339,7 @@
         <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
         <v>82</v>
@@ -4317,19 +4359,19 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
         <v>82</v>
@@ -4349,19 +4391,19 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
         <v>82</v>
@@ -4381,19 +4423,19 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s">
         <v>82</v>
@@ -4413,10 +4455,10 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
         <v>78</v>
@@ -4425,10 +4467,10 @@
         <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s">
         <v>82</v>
@@ -4437,7 +4479,7 @@
         <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U17" t="s">
         <v>84</v>
@@ -4446,7 +4488,7 @@
         <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Y17" t="s">
         <v>82</v>
@@ -4460,28 +4502,28 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s" s="44">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s" s="45">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s" s="46">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s" s="47">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s">
         <v>60</v>
@@ -4496,19 +4538,19 @@
         <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" t="s" s="50">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T19" t="s">
         <v>71</v>
@@ -4516,7 +4558,7 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20">
         <f>值集数据!$E$11</f>
@@ -4525,13 +4567,13 @@
         <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -4540,7 +4582,7 @@
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T20" t="s">
         <v>84</v>
@@ -4548,7 +4590,7 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21">
         <f>值集数据!$E$11</f>
@@ -4557,13 +4599,13 @@
         <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s">
         <v>82</v>
@@ -4572,7 +4614,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T21" t="s">
         <v>84</v>
@@ -4580,7 +4622,7 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F22">
         <f>值集数据!$E$13</f>
@@ -4589,13 +4631,13 @@
         <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s">
         <v>82</v>
@@ -4604,7 +4646,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T22" t="s">
         <v>84</v>
@@ -4612,7 +4654,7 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$13</f>
@@ -4621,22 +4663,22 @@
         <v>109</v>
       </c>
       <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
         <v>151</v>
-      </c>
-      <c r="I23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" t="s">
-        <v>148</v>
       </c>
       <c r="T23" t="s">
         <v>84</v>
@@ -4644,7 +4686,7 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$13</f>
@@ -4653,13 +4695,13 @@
         <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s">
         <v>82</v>
@@ -4668,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T24" t="s">
         <v>84</v>
@@ -4676,7 +4718,7 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$13</f>
@@ -4685,13 +4727,13 @@
         <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s">
         <v>82</v>
@@ -4700,7 +4742,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T25" t="s">
         <v>84</v>
@@ -4708,22 +4750,22 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
         <v>82</v>
@@ -4732,7 +4774,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T26" t="s">
         <v>84</v>
@@ -4740,22 +4782,22 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s">
         <v>82</v>
@@ -4764,7 +4806,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T27" t="s">
         <v>84</v>
@@ -4772,22 +4814,22 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s">
         <v>82</v>
@@ -4796,7 +4838,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T28" t="s">
         <v>84</v>
@@ -4804,22 +4846,22 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s">
         <v>82</v>
@@ -4828,7 +4870,7 @@
         <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T29" t="s">
         <v>84</v>
@@ -4836,22 +4878,22 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J30" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s">
         <v>82</v>
@@ -4860,7 +4902,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T30" t="s">
         <v>84</v>
@@ -4868,22 +4910,22 @@
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M31" t="s">
         <v>82</v>
@@ -4892,7 +4934,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T31" t="s">
         <v>84</v>
@@ -4900,22 +4942,22 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
         <v>82</v>
@@ -4932,22 +4974,22 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s">
         <v>82</v>
@@ -4956,7 +4998,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="T33" t="s">
         <v>84</v>
@@ -4964,22 +5006,22 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M34" t="s">
         <v>82</v>
@@ -4988,7 +5030,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="T34" t="s">
         <v>84</v>
@@ -5002,25 +5044,25 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s" s="51">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s" s="52">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s" s="53">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s" s="54">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J36" t="s" s="55">
         <v>62</v>
@@ -5035,25 +5077,25 @@
         <v>69</v>
       </c>
       <c r="N36" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q36" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="R36" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S36" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="T36" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="U36" t="s">
         <v>71</v>
@@ -5061,7 +5103,7 @@
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -5085,10 +5127,10 @@
         <v>85</v>
       </c>
       <c r="M37" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="R37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S37" t="s">
         <v>82</v>
@@ -5099,7 +5141,7 @@
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
@@ -5123,10 +5165,10 @@
         <v>85</v>
       </c>
       <c r="M38" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="R38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S38" t="s">
         <v>82</v>
@@ -5137,7 +5179,7 @@
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
         <v>92</v>
@@ -5161,7 +5203,7 @@
         <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s">
         <v>93</v>
@@ -5170,7 +5212,7 @@
         <v>94</v>
       </c>
       <c r="R39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S39" t="s">
         <v>82</v>
@@ -5181,7 +5223,7 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
         <v>103</v>
@@ -5205,7 +5247,7 @@
         <v>107</v>
       </c>
       <c r="M40" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N40" t="s">
         <v>104</v>
@@ -5214,7 +5256,7 @@
         <v>105</v>
       </c>
       <c r="R40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S40" t="s">
         <v>82</v>
@@ -5225,16 +5267,16 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I41">
         <f>值集数据!$E$15</f>
@@ -5246,19 +5288,19 @@
         <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M41" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N41" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O41" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="R41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S41" t="s">
         <v>82</v>
@@ -5269,16 +5311,16 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I42">
         <f>值集数据!$E$17</f>
@@ -5290,13 +5332,13 @@
         <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="R42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S42" t="s">
         <v>82</v>
@@ -5313,46 +5355,46 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s" s="57">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s" s="58">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s" s="59">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="I44" t="s" s="60">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J44" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M44" t="s" s="61">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="N44" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="O44" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="Q44" t="s">
         <v>71</v>
@@ -5360,7 +5402,7 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$37</f>
@@ -5375,16 +5417,16 @@
         <f>值集数据!$E$8</f>
       </c>
       <c r="J45" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="K45" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M45" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="N45" t="s">
         <v>84</v>
@@ -5393,7 +5435,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q45" t="s">
         <v>84</v>
@@ -5401,7 +5443,7 @@
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$37</f>
@@ -5416,16 +5458,16 @@
         <f>值集数据!$E$8</f>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="K46" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M46" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N46" t="s">
         <v>84</v>
@@ -5434,7 +5476,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q46" t="s">
         <v>84</v>
@@ -5442,7 +5484,7 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$38</f>
@@ -5457,16 +5499,16 @@
         <f>值集数据!$E$9</f>
       </c>
       <c r="J47" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M47" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="N47" t="s">
         <v>84</v>
@@ -5475,7 +5517,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q47" t="s">
         <v>84</v>
@@ -5483,7 +5525,7 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$38</f>
@@ -5498,16 +5540,16 @@
         <f>值集数据!$E$9</f>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M48" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N48" t="s">
         <v>84</v>
@@ -5516,7 +5558,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q48" t="s">
         <v>84</v>
@@ -5524,7 +5566,7 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$39</f>
@@ -5539,16 +5581,16 @@
         <f>值集数据!$E$10</f>
       </c>
       <c r="J49" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K49" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M49" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="N49" t="s">
         <v>84</v>
@@ -5557,7 +5599,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q49" t="s">
         <v>84</v>
@@ -5565,7 +5607,7 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$39</f>
@@ -5580,16 +5622,16 @@
         <f>值集数据!$E$10</f>
       </c>
       <c r="J50" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K50" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N50" t="s">
         <v>82</v>
@@ -5598,7 +5640,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q50" t="s">
         <v>84</v>
@@ -5606,7 +5648,7 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$39</f>
@@ -5621,16 +5663,16 @@
         <f>值集数据!$E$10</f>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K51" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N51" t="s">
         <v>84</v>
@@ -5639,7 +5681,7 @@
         <v>84</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q51" t="s">
         <v>84</v>
@@ -5647,7 +5689,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$40</f>
@@ -5662,16 +5704,16 @@
         <f>值集数据!$E$12</f>
       </c>
       <c r="J52" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K52" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M52" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="N52" t="s">
         <v>84</v>
@@ -5680,7 +5722,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q52" t="s">
         <v>84</v>
@@ -5688,7 +5730,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$40</f>
@@ -5703,16 +5745,16 @@
         <f>值集数据!$E$12</f>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M53" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="N53" t="s">
         <v>84</v>
@@ -5721,7 +5763,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q53" t="s">
         <v>84</v>
@@ -5729,7 +5771,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$40</f>
@@ -5744,16 +5786,16 @@
         <f>值集数据!$E$12</f>
       </c>
       <c r="J54" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K54" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N54" t="s">
         <v>84</v>
@@ -5762,7 +5804,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q54" t="s">
         <v>84</v>
@@ -5770,7 +5812,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$41</f>
@@ -5785,16 +5827,16 @@
         <f>值集数据!$E$15</f>
       </c>
       <c r="J55" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M55" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N55" t="s">
         <v>82</v>
@@ -5803,7 +5845,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q55" t="s">
         <v>84</v>
@@ -5811,7 +5853,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$41</f>
@@ -5826,16 +5868,16 @@
         <f>值集数据!$E$15</f>
       </c>
       <c r="J56" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="K56" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s">
         <v>84</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="N56" t="s">
         <v>82</v>
@@ -5844,7 +5886,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q56" t="s">
         <v>84</v>
@@ -5852,7 +5894,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$42</f>
@@ -5867,16 +5909,16 @@
         <f>值集数据!$E$17</f>
       </c>
       <c r="J57" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="K57" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M57" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="N57" t="s">
         <v>84</v>
@@ -5885,7 +5927,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q57" t="s">
         <v>84</v>
@@ -5893,7 +5935,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$42</f>
@@ -5908,16 +5950,16 @@
         <f>值集数据!$E$17</f>
       </c>
       <c r="J58" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K58" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M58" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="N58" t="s">
         <v>84</v>
@@ -5926,7 +5968,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q58" t="s">
         <v>84</v>
@@ -5934,7 +5976,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$42</f>
@@ -5949,16 +5991,16 @@
         <f>值集数据!$E$17</f>
       </c>
       <c r="J59" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="K59" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s">
         <v>82</v>
       </c>
       <c r="M59" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N59" t="s">
         <v>82</v>
@@ -5967,7 +6009,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q59" t="s">
         <v>84</v>

--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-monitor\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D003D9C-9963-4143-8B15-9D8DC0B70895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="值集数据" r:id="rId5" sheetId="2"/>
+    <sheet name="值集数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="295">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-11-17</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2074,15 @@
     <t>decrypt_field</t>
   </si>
   <si>
+    <t>request_method</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_lov-8</t>
   </si>
   <si>
@@ -2094,40 +2104,19 @@
     <t>0</t>
   </si>
   <si>
-    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
-SELECT 
-	ir.id,
-	ir.code,
-	htt.tenant_name,
-	irt.name
-FROM iam_role ir
-JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
-JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
-&lt;where&gt;
-&lt;if test="excludeConfigured"&gt;
-NOT EXISTS(SELECT 1 
-		    FROM hzero_monitor.hmnt_audit_op_config haoc 
-		    WHERE haoc.role_id = ir.id
-			 AND haoc.tenant_id = #{tenantId})
-&lt;/if&gt;
-&lt;if test="name != null and name != ''"&gt;
-  &lt;bind name="nameLike" value="%' + name + '%'"/&gt;
-	AND ir.name LIKE #{nameLike}
-&lt;/if&gt;
-&lt;if test="code != null and code != ''"&gt;
-  &lt;bind name="codeLike" value="%' + code + '%'"/&gt;
-	AND ir.code LIKE #{codeLike}
-&lt;/if&gt;
-&lt;if test="tenantId != null"&gt;
-	AND ir.h_tenant_id = #{tenantId}
-&lt;/if&gt;
-&lt;/where&gt;</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>now</t>
   </si>
   <si>
     <t>hpfm_lov-9</t>
@@ -2199,6 +2188,9 @@
 	AND ir.h_tenant_id = #{tenantId}
 &lt;/if&gt;
 &lt;/where&gt;</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>hpfm_lov-10</t>
@@ -2729,6 +2721,9 @@
     <t>选择字段展示类型</t>
   </si>
   <si>
+    <t>Select field display type</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_header-42</t>
   </si>
   <si>
@@ -2771,6 +2766,12 @@
     <t>table_field_width</t>
   </si>
   <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-45</t>
   </si>
   <si>
@@ -2825,6 +2826,9 @@
     <t>150</t>
   </si>
   <si>
+    <t>SELECT</t>
+  </si>
+  <si>
     <t>hpfm_lov_view_line-50</t>
   </si>
   <si>
@@ -2925,13 +2929,43 @@
   </si>
   <si>
     <t>tenantName</t>
+  </si>
+  <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
+SELECT 
+	ir.id,
+	ir.code,
+	htt.tenant_name,
+	irt.name
+FROM iam_role ir
+JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
+JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
+&lt;where&gt;
+&lt;if test="excludeConfigured"&gt;
+NOT EXISTS(SELECT 1 
+		    FROM hmnt_audit_op_config haoc 
+		    WHERE haoc.role_id = ir.id
+			 AND haoc.tenant_id = #{tenantId})
+&lt;/if&gt;
+&lt;if test="name != null and name != ''"&gt;
+  &lt;bind name="nameLike" value="'%' + name + '%'"/&gt;
+	AND ir.name LIKE #{nameLike}
+&lt;/if&gt;
+&lt;if test="code != null and code != ''"&gt;
+  &lt;bind name="codeLike" value="'%' + code + '%'"/&gt;
+	AND ir.code LIKE #{codeLike}
+&lt;/if&gt;
+&lt;if test="tenantId != null"&gt;
+	AND ir.h_tenant_id = #{tenantId}
+&lt;/if&gt;
+&lt;/where&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -3051,154 +3085,184 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3339,7 +3403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3391,6 +3455,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3406,40 +3500,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3779,36 +3846,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3817,21 +3884,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3942,11 +4009,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3984,19 +4051,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4020,39 +4087,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:29">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:29">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4062,13 +4135,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4089,10 +4162,10 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s" s="42">
+      <c r="M7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s" s="43">
+      <c r="N7" s="38" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4131,370 +4204,478 @@
       <c r="Z7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="409.5">
       <c r="E8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="U8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-      <c r="M8" t="s">
+      <c r="H9" t="s">
         <v>82</v>
       </c>
-      <c r="N8" t="s">
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" t="s">
         <v>89</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AB12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" t="s">
+        <v>86</v>
+      </c>
+      <c r="V14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" t="s">
+        <v>86</v>
+      </c>
+      <c r="V15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+      <c r="U17" t="s">
+        <v>86</v>
+      </c>
+      <c r="V17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB17" t="s">
         <v>90</v>
       </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="AC17" t="s">
         <v>96</v>
       </c>
-      <c r="Y10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>106</v>
-      </c>
-      <c r="U12" t="s">
-        <v>84</v>
-      </c>
-      <c r="V12" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="U13" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="U14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="U15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>128</v>
-      </c>
-      <c r="U17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4502,28 +4683,28 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s" s="44">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s" s="45">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s" s="46">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s" s="47">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
         <v>60</v>
@@ -4531,512 +4712,623 @@
       <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="M19" t="s" s="48">
+      <c r="M19" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="N19" t="s" s="49">
+      <c r="N19" s="44" t="s">
         <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" t="s" s="50">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="Q19" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="R19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="S19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="T19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="U19" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="E20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20">
+        <v>149</v>
+      </c>
+      <c r="F20" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>86</v>
+      </c>
+      <c r="U20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="E21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21">
+        <v>149</v>
+      </c>
+      <c r="F21" t="str">
         <f>值集数据!$E$11</f>
+        <v>hpfm_lov-11</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" t="s">
+        <v>90</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="E22" t="s">
         <v>149</v>
       </c>
-      <c r="J21" t="s">
-        <v>150</v>
-      </c>
-      <c r="M21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="s">
-        <v>151</v>
-      </c>
-      <c r="T21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
         <v>153</v>
       </c>
-      <c r="J22" t="s">
+      <c r="T22" t="s">
+        <v>86</v>
+      </c>
+      <c r="U22" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="str">
+        <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s">
+        <v>157</v>
+      </c>
+      <c r="T23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="str">
+        <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="str">
+        <f>值集数据!$E$13</f>
+        <v>hpfm_lov-13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>170</v>
+      </c>
+      <c r="T25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="str">
+        <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s">
         <v>153</v>
       </c>
-      <c r="M22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N22" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" t="s">
-        <v>147</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23">
-        <f>值集数据!$E$13</f>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" t="s">
-        <v>151</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24">
-        <f>值集数据!$E$13</f>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="T26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U26" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="str">
+        <f>值集数据!$E$14</f>
+        <v>hpfm_lov-14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="s">
         <v>157</v>
       </c>
-      <c r="I24" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" t="s">
-        <v>159</v>
-      </c>
-      <c r="M24" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" t="s">
-        <v>82</v>
-      </c>
-      <c r="P24" t="s">
-        <v>160</v>
-      </c>
-      <c r="T24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25">
-        <f>值集数据!$E$13</f>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" t="s">
-        <v>82</v>
-      </c>
-      <c r="N25" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26">
-        <f>值集数据!$E$14</f>
-      </c>
-      <c r="G26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N26" t="s">
-        <v>82</v>
-      </c>
-      <c r="P26" t="s">
-        <v>147</v>
-      </c>
-      <c r="T26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27">
-        <f>值集数据!$E$14</f>
-      </c>
-      <c r="G27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" t="s">
-        <v>170</v>
-      </c>
-      <c r="M27" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" t="s">
-        <v>151</v>
-      </c>
       <c r="T27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>86</v>
+      </c>
+      <c r="U27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="E28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28">
+        <v>149</v>
+      </c>
+      <c r="F28" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>86</v>
+      </c>
+      <c r="U28" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29">
+        <v>149</v>
+      </c>
+      <c r="F29" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>86</v>
+      </c>
+      <c r="U29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="E30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30">
+        <v>149</v>
+      </c>
+      <c r="F30" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>86</v>
+      </c>
+      <c r="U30" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="E31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31">
+        <v>149</v>
+      </c>
+      <c r="F31" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>86</v>
+      </c>
+      <c r="U31" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32">
+        <v>149</v>
+      </c>
+      <c r="F32" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>86</v>
+      </c>
+      <c r="U32" t="s">
+        <v>90</v>
+      </c>
+      <c r="V32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33">
+        <v>149</v>
+      </c>
+      <c r="F33" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="T33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>86</v>
+      </c>
+      <c r="U33" t="s">
+        <v>90</v>
+      </c>
+      <c r="V33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34">
+        <v>149</v>
+      </c>
+      <c r="F34" t="str">
         <f>值集数据!$E$16</f>
+        <v>hpfm_lov-16</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>86</v>
+      </c>
+      <c r="U34" t="s">
+        <v>90</v>
+      </c>
+      <c r="V34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -5044,30 +5336,30 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" t="s" s="51">
-        <v>192</v>
-      </c>
-      <c r="E36" t="s" s="52">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s" s="53">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>200</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I36" t="s" s="54">
-        <v>197</v>
-      </c>
-      <c r="J36" t="s" s="55">
+        <v>202</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K36" t="s" s="56">
+      <c r="K36" s="51" t="s">
         <v>63</v>
       </c>
       <c r="L36" t="s">
@@ -5077,277 +5369,325 @@
         <v>69</v>
       </c>
       <c r="N36" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O36" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q36" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="R36" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="S36" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="T36" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="U36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="V36" t="s">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="E37" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="I37" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="R37" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>86</v>
+      </c>
+      <c r="V37" t="s">
+        <v>90</v>
+      </c>
+      <c r="W37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="E38" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
         <v>88</v>
       </c>
-      <c r="H38" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38">
-        <f>值集数据!$E$9</f>
-      </c>
-      <c r="J38" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" t="s">
-        <v>85</v>
-      </c>
       <c r="M38" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>86</v>
+      </c>
+      <c r="V38" t="s">
+        <v>90</v>
+      </c>
+      <c r="W38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="E39" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="str">
         <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L39" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" t="s">
+        <v>99</v>
+      </c>
+      <c r="O39" t="s">
+        <v>100</v>
+      </c>
+      <c r="R39" t="s">
+        <v>153</v>
+      </c>
+      <c r="S39" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" t="s">
+        <v>86</v>
+      </c>
+      <c r="V39" t="s">
+        <v>90</v>
+      </c>
+      <c r="W39" t="s">
         <v>96</v>
       </c>
-      <c r="M39" t="s">
-        <v>209</v>
-      </c>
-      <c r="N39" t="s">
-        <v>93</v>
-      </c>
-      <c r="O39" t="s">
-        <v>94</v>
-      </c>
-      <c r="R39" t="s">
-        <v>147</v>
-      </c>
-      <c r="S39" t="s">
-        <v>82</v>
-      </c>
-      <c r="U39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:23">
       <c r="E40" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40">
+        <v>111</v>
+      </c>
+      <c r="I40" t="str">
         <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="R40" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>86</v>
+      </c>
+      <c r="V40" t="s">
+        <v>90</v>
+      </c>
+      <c r="W40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="E41" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41">
+        <v>220</v>
+      </c>
+      <c r="I41" t="str">
         <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M41" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N41" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O41" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="R41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>86</v>
+      </c>
+      <c r="V41" t="s">
+        <v>90</v>
+      </c>
+      <c r="W41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="E42" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42">
+        <v>133</v>
+      </c>
+      <c r="I42" t="str">
         <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R42" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>86</v>
+      </c>
+      <c r="V42" t="s">
+        <v>90</v>
+      </c>
+      <c r="W42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5355,667 +5695,807 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" t="s" s="57">
-        <v>221</v>
-      </c>
-      <c r="E44" t="s" s="58">
-        <v>222</v>
-      </c>
-      <c r="F44" t="s" s="59">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
-      </c>
-      <c r="I44" t="s" s="60">
-        <v>197</v>
+        <v>232</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>203</v>
       </c>
       <c r="J44" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
-      </c>
-      <c r="M44" t="s" s="61">
-        <v>228</v>
+        <v>145</v>
+      </c>
+      <c r="M44" s="56" t="s">
+        <v>235</v>
       </c>
       <c r="N44" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O44" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="R44" t="s">
+        <v>239</v>
+      </c>
+      <c r="S44" t="s">
+        <v>240</v>
+      </c>
+      <c r="T44" t="s">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45">
+        <v>241</v>
+      </c>
+      <c r="F45" t="str">
         <f>值集数据!$E$37</f>
+        <v>hpfm_lov_view_header-37</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45">
+        <v>85</v>
+      </c>
+      <c r="I45" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K45" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M45" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="N45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>86</v>
+      </c>
+      <c r="T45" t="s">
+        <v>90</v>
+      </c>
+      <c r="U45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="E46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46">
+        <v>246</v>
+      </c>
+      <c r="F46" t="str">
         <f>值集数据!$E$37</f>
+        <v>hpfm_lov_view_header-37</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46">
+        <v>85</v>
+      </c>
+      <c r="I46" t="str">
         <f>值集数据!$E$8</f>
+        <v>hpfm_lov-8</v>
       </c>
       <c r="J46" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K46" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>86</v>
+      </c>
+      <c r="T46" t="s">
+        <v>90</v>
+      </c>
+      <c r="U46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="E47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47">
+        <v>250</v>
+      </c>
+      <c r="F47" t="str">
         <f>值集数据!$E$38</f>
+        <v>hpfm_lov_view_header-38</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47">
+        <v>85</v>
+      </c>
+      <c r="I47" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="J47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K47" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M47" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>86</v>
+      </c>
+      <c r="T47" t="s">
+        <v>90</v>
+      </c>
+      <c r="U47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="E48" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48">
+        <v>252</v>
+      </c>
+      <c r="F48" t="str">
         <f>值集数据!$E$38</f>
+        <v>hpfm_lov_view_header-38</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48">
+        <v>85</v>
+      </c>
+      <c r="I48" t="str">
         <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M48" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>86</v>
+      </c>
+      <c r="T48" t="s">
+        <v>90</v>
+      </c>
+      <c r="U48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="5:21">
       <c r="E49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" t="str">
+        <f>值集数据!$E$39</f>
+        <v>hpfm_lov_view_header-39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>255</v>
+      </c>
+      <c r="K49" t="s">
+        <v>256</v>
+      </c>
+      <c r="L49" t="s">
+        <v>153</v>
+      </c>
+      <c r="M49" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" t="s">
+        <v>86</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" t="s">
+        <v>259</v>
+      </c>
+      <c r="S49" t="s">
+        <v>115</v>
+      </c>
+      <c r="T49" t="s">
+        <v>90</v>
+      </c>
+      <c r="U49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="5:21">
+      <c r="E50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" t="str">
+        <f>值集数据!$E$39</f>
+        <v>hpfm_lov_view_header-39</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>255</v>
+      </c>
+      <c r="K50" t="s">
+        <v>256</v>
+      </c>
+      <c r="L50" t="s">
+        <v>157</v>
+      </c>
+      <c r="M50" t="s">
+        <v>261</v>
+      </c>
+      <c r="N50" t="s">
+        <v>85</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>86</v>
+      </c>
+      <c r="T50" t="s">
+        <v>90</v>
+      </c>
+      <c r="U50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="5:21">
+      <c r="E51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" t="str">
+        <f>值集数据!$E$39</f>
+        <v>hpfm_lov_view_header-39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" t="str">
+        <f>值集数据!$E$10</f>
+        <v>hpfm_lov-10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" t="s">
+        <v>264</v>
+      </c>
+      <c r="L51" t="s">
+        <v>166</v>
+      </c>
+      <c r="M51" t="s">
+        <v>215</v>
+      </c>
+      <c r="N51" t="s">
+        <v>86</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="s">
         <v>245</v>
       </c>
-      <c r="F49">
-        <f>值集数据!$E$39</f>
-      </c>
-      <c r="G49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="J49" t="s">
-        <v>246</v>
-      </c>
-      <c r="K49" t="s">
-        <v>247</v>
-      </c>
-      <c r="L49" t="s">
-        <v>147</v>
-      </c>
-      <c r="M49" t="s">
-        <v>248</v>
-      </c>
-      <c r="N49" t="s">
-        <v>84</v>
-      </c>
-      <c r="O49" t="s">
-        <v>82</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="Q51" t="s">
+        <v>86</v>
+      </c>
+      <c r="T51" t="s">
+        <v>90</v>
+      </c>
+      <c r="U51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21">
+      <c r="E52" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" t="str">
+        <f>值集数据!$E$40</f>
+        <v>hpfm_lov_view_header-40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" t="str">
+        <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>266</v>
+      </c>
+      <c r="K52" t="s">
+        <v>267</v>
+      </c>
+      <c r="L52" t="s">
+        <v>166</v>
+      </c>
+      <c r="M52" t="s">
+        <v>268</v>
+      </c>
+      <c r="N52" t="s">
+        <v>86</v>
+      </c>
+      <c r="O52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" t="s">
         <v>249</v>
       </c>
-      <c r="Q49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>250</v>
-      </c>
-      <c r="F50">
-        <f>值集数据!$E$39</f>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="J50" t="s">
-        <v>246</v>
-      </c>
-      <c r="K50" t="s">
-        <v>247</v>
-      </c>
-      <c r="L50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M50" t="s">
-        <v>251</v>
-      </c>
-      <c r="N50" t="s">
-        <v>82</v>
-      </c>
-      <c r="O50" t="s">
-        <v>84</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="Q52" t="s">
+        <v>86</v>
+      </c>
+      <c r="T52" t="s">
+        <v>90</v>
+      </c>
+      <c r="U52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="5:21">
+      <c r="E53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" t="str">
+        <f>值集数据!$E$40</f>
+        <v>hpfm_lov_view_header-40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" t="str">
+        <f>值集数据!$E$12</f>
+        <v>hpfm_lov-12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" t="s">
+        <v>153</v>
+      </c>
+      <c r="M53" t="s">
+        <v>272</v>
+      </c>
+      <c r="N53" t="s">
+        <v>86</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
         <v>249</v>
       </c>
-      <c r="Q50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51">
-        <f>值集数据!$E$39</f>
-      </c>
-      <c r="G51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="J51" t="s">
-        <v>253</v>
-      </c>
-      <c r="K51" t="s">
-        <v>254</v>
-      </c>
-      <c r="L51" t="s">
-        <v>160</v>
-      </c>
-      <c r="M51" t="s">
-        <v>209</v>
-      </c>
-      <c r="N51" t="s">
-        <v>84</v>
-      </c>
-      <c r="O51" t="s">
-        <v>84</v>
-      </c>
-      <c r="P51" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>255</v>
-      </c>
-      <c r="F52">
+      <c r="Q53" t="s">
+        <v>86</v>
+      </c>
+      <c r="T53" t="s">
+        <v>90</v>
+      </c>
+      <c r="U53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="5:21">
+      <c r="E54" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" t="str">
         <f>值集数据!$E$40</f>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52">
+        <v>hpfm_lov_view_header-40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="str">
         <f>值集数据!$E$12</f>
-      </c>
-      <c r="J52" t="s">
-        <v>256</v>
-      </c>
-      <c r="K52" t="s">
-        <v>257</v>
-      </c>
-      <c r="L52" t="s">
-        <v>160</v>
-      </c>
-      <c r="M52" t="s">
+        <v>hpfm_lov-12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>274</v>
+      </c>
+      <c r="K54" t="s">
+        <v>275</v>
+      </c>
+      <c r="L54" t="s">
+        <v>157</v>
+      </c>
+      <c r="M54" t="s">
+        <v>217</v>
+      </c>
+      <c r="N54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T54" t="s">
+        <v>90</v>
+      </c>
+      <c r="U54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21">
+      <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" t="str">
+        <f>值集数据!$E$41</f>
+        <v>hpfm_lov_view_header-41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" t="str">
+        <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" t="s">
+        <v>278</v>
+      </c>
+      <c r="L55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M55" t="s">
+        <v>222</v>
+      </c>
+      <c r="N55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" t="s">
+        <v>86</v>
+      </c>
+      <c r="P55" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>86</v>
+      </c>
+      <c r="T55" t="s">
+        <v>90</v>
+      </c>
+      <c r="U55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="5:21">
+      <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="str">
+        <f>值集数据!$E$41</f>
+        <v>hpfm_lov_view_header-41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" t="str">
+        <f>值集数据!$E$15</f>
+        <v>hpfm_lov-15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>281</v>
+      </c>
+      <c r="K56" t="s">
+        <v>282</v>
+      </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" t="s">
+        <v>85</v>
+      </c>
+      <c r="O56" t="s">
+        <v>86</v>
+      </c>
+      <c r="P56" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>86</v>
+      </c>
+      <c r="T56" t="s">
+        <v>90</v>
+      </c>
+      <c r="U56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="5:21">
+      <c r="E57" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" t="str">
+        <f>值集数据!$E$42</f>
+        <v>hpfm_lov_view_header-42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" t="str">
+        <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>284</v>
+      </c>
+      <c r="K57" t="s">
+        <v>285</v>
+      </c>
+      <c r="L57" t="s">
+        <v>153</v>
+      </c>
+      <c r="M57" t="s">
+        <v>286</v>
+      </c>
+      <c r="N57" t="s">
+        <v>86</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>86</v>
+      </c>
+      <c r="T57" t="s">
+        <v>90</v>
+      </c>
+      <c r="U57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21">
+      <c r="E58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F58" t="str">
+        <f>值集数据!$E$42</f>
+        <v>hpfm_lov_view_header-42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" t="str">
+        <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>288</v>
+      </c>
+      <c r="K58" t="s">
+        <v>289</v>
+      </c>
+      <c r="L58" t="s">
+        <v>157</v>
+      </c>
+      <c r="M58" t="s">
+        <v>226</v>
+      </c>
+      <c r="N58" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" t="s">
+        <v>86</v>
+      </c>
+      <c r="P58" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>86</v>
+      </c>
+      <c r="T58" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="5:21">
+      <c r="E59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="str">
+        <f>值集数据!$E$42</f>
+        <v>hpfm_lov_view_header-42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" t="str">
+        <f>值集数据!$E$17</f>
+        <v>hpfm_lov-17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>291</v>
+      </c>
+      <c r="K59" t="s">
+        <v>292</v>
+      </c>
+      <c r="L59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M59" t="s">
+        <v>293</v>
+      </c>
+      <c r="N59" t="s">
+        <v>85</v>
+      </c>
+      <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="s">
         <v>258</v>
       </c>
-      <c r="N52" t="s">
-        <v>84</v>
-      </c>
-      <c r="O52" t="s">
-        <v>84</v>
-      </c>
-      <c r="P52" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53">
-        <f>值集数据!$E$40</f>
-      </c>
-      <c r="G53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53">
-        <f>值集数据!$E$12</f>
-      </c>
-      <c r="J53" t="s">
-        <v>260</v>
-      </c>
-      <c r="K53" t="s">
-        <v>261</v>
-      </c>
-      <c r="L53" t="s">
-        <v>147</v>
-      </c>
-      <c r="M53" t="s">
-        <v>262</v>
-      </c>
-      <c r="N53" t="s">
-        <v>84</v>
-      </c>
-      <c r="O53" t="s">
-        <v>84</v>
-      </c>
-      <c r="P53" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54">
-        <f>值集数据!$E$40</f>
-      </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54">
-        <f>值集数据!$E$12</f>
-      </c>
-      <c r="J54" t="s">
-        <v>264</v>
-      </c>
-      <c r="K54" t="s">
-        <v>265</v>
-      </c>
-      <c r="L54" t="s">
-        <v>151</v>
-      </c>
-      <c r="M54" t="s">
-        <v>211</v>
-      </c>
-      <c r="N54" t="s">
-        <v>84</v>
-      </c>
-      <c r="O54" t="s">
-        <v>84</v>
-      </c>
-      <c r="P54" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55">
-        <f>值集数据!$E$41</f>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55">
-        <f>值集数据!$E$15</f>
-      </c>
-      <c r="J55" t="s">
-        <v>267</v>
-      </c>
-      <c r="K55" t="s">
-        <v>268</v>
-      </c>
-      <c r="L55" t="s">
-        <v>186</v>
-      </c>
-      <c r="M55" t="s">
-        <v>216</v>
-      </c>
-      <c r="N55" t="s">
-        <v>82</v>
-      </c>
-      <c r="O55" t="s">
-        <v>84</v>
-      </c>
-      <c r="P55" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56">
-        <f>值集数据!$E$41</f>
-      </c>
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I56">
-        <f>值集数据!$E$15</f>
-      </c>
-      <c r="J56" t="s">
-        <v>271</v>
-      </c>
-      <c r="K56" t="s">
-        <v>272</v>
-      </c>
-      <c r="L56" t="s">
-        <v>84</v>
-      </c>
-      <c r="M56" t="s">
-        <v>215</v>
-      </c>
-      <c r="N56" t="s">
-        <v>82</v>
-      </c>
-      <c r="O56" t="s">
-        <v>84</v>
-      </c>
-      <c r="P56" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>273</v>
-      </c>
-      <c r="F57">
-        <f>值集数据!$E$42</f>
-      </c>
-      <c r="G57" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J57" t="s">
-        <v>274</v>
-      </c>
-      <c r="K57" t="s">
-        <v>275</v>
-      </c>
-      <c r="L57" t="s">
-        <v>147</v>
-      </c>
-      <c r="M57" t="s">
-        <v>276</v>
-      </c>
-      <c r="N57" t="s">
-        <v>84</v>
-      </c>
-      <c r="O57" t="s">
-        <v>84</v>
-      </c>
-      <c r="P57" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>277</v>
-      </c>
-      <c r="F58">
-        <f>值集数据!$E$42</f>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J58" t="s">
-        <v>278</v>
-      </c>
-      <c r="K58" t="s">
-        <v>279</v>
-      </c>
-      <c r="L58" t="s">
-        <v>151</v>
-      </c>
-      <c r="M58" t="s">
-        <v>219</v>
-      </c>
-      <c r="N58" t="s">
-        <v>84</v>
-      </c>
-      <c r="O58" t="s">
-        <v>84</v>
-      </c>
-      <c r="P58" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>280</v>
-      </c>
-      <c r="F59">
-        <f>值集数据!$E$42</f>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J59" t="s">
-        <v>281</v>
-      </c>
-      <c r="K59" t="s">
-        <v>282</v>
-      </c>
-      <c r="L59" t="s">
-        <v>82</v>
-      </c>
-      <c r="M59" t="s">
-        <v>283</v>
-      </c>
-      <c r="N59" t="s">
-        <v>82</v>
-      </c>
-      <c r="O59" t="s">
-        <v>84</v>
-      </c>
-      <c r="P59" t="s">
-        <v>249</v>
-      </c>
       <c r="Q59" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="T59" t="s">
+        <v>90</v>
+      </c>
+      <c r="U59" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_platform/hzero-platform-lov.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-monitor\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D003D9C-9963-4143-8B15-9D8DC0B70895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="值集数据" sheetId="2" r:id="rId2"/>
+    <sheet name="值集数据" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="353">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2104,6 +2103,37 @@
     <t>0</t>
   </si>
   <si>
+    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
+SELECT 
+	ir.id,
+	ir.code AS "code",
+	htt.tenant_name,
+	irt.name AS "name",
+        ir.h_level_path AS level_path
+FROM iam_role ir
+JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
+JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
+&lt;where&gt;
+&lt;if test="excludeConfigured"&gt;
+NOT EXISTS(SELECT 1 
+		    FROM hmnt_audit_op_config haoc 
+		    WHERE haoc.role_id = ir.id
+			 AND haoc.tenant_id = #{tenantId})
+&lt;/if&gt;
+&lt;if test="name != null and name != ''"&gt;
+  &lt;bind name="nameLike" value="'%' + name + '%'"/&gt;
+	AND ir.name LIKE #{nameLike}
+&lt;/if&gt;
+&lt;if test="code != null and code != ''"&gt;
+  &lt;bind name="codeLike" value="'%' + code + '%'"/&gt;
+	AND ir.code LIKE #{codeLike}
+&lt;/if&gt;
+&lt;if test="tenantId != null"&gt;
+	AND ir.h_tenant_id = #{tenantId}
+&lt;/if&gt;
+&lt;/where&gt;</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -2117,6 +2147,9 @@
   </si>
   <si>
     <t>now</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>hpfm_lov-9</t>
@@ -2177,11 +2210,11 @@
     &lt;/otherwise&gt;
 &lt;/choose&gt;                              
 &lt;if test="name != null and name != ''"&gt;
-  &lt;bind name="nameLike" value="%' + name + '%'"/&gt;
+  &lt;bind name="nameLike" value="'%' + name + '%'"/&gt;
 	AND ir.name LIKE #{nameLike}
 &lt;/if&gt;
 &lt;if test="code != null and code != ''"&gt;
-  &lt;bind name="codeLike" value="%' + code + '%'"/&gt;
+  &lt;bind name="codeLike" value="'%' + code + '%'"/&gt;
 	AND ir.code LIKE #{codeLike}
 &lt;/if&gt;
 &lt;if test="tenantId != null"&gt;
@@ -2190,7 +2223,7 @@
 &lt;/where&gt;</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>2124</t>
   </si>
   <si>
     <t>hpfm_lov-10</t>
@@ -2313,6 +2346,9 @@
     <t>auditOpConfigId</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>hpfm_lov-11</t>
   </si>
   <si>
@@ -2374,6 +2410,43 @@
     <t>hpfm_lov-13</t>
   </si>
   <si>
+    <t>HMNT.AUDIT_OP.DATA_LINE</t>
+  </si>
+  <si>
+    <t>关联字段</t>
+  </si>
+  <si>
+    <t>SELECT
+	had.audit_data_id,
+	had.audit_batch_number batch_number,
+	had.table_name,
+	had.entity_id,
+	had.remark remark_header,
+	hadl.audit_data_line_id,
+	hadl.field_code,
+	hadl.remark remark_line,
+	hado.audit_document_id,
+	haol.audit_op_config_id 
+FROM
+	hmnt_audit_data had
+	LEFT JOIN hmnt_audit_data_line hadl ON had.audit_data_id = hadl.audit_data_id 
+	AND hadl.lang = 'zh_CN'
+	LEFT JOIN hmnt_audit_op_log haol ON haol.audit_batch_number = had.audit_batch_number
+	LEFT JOIN hmnt_audit_document_opr hado ON hado.audit_op_config_id = haol.audit_op_config_id 
+	AND hado.audit_document_id = 91126301309034496 
+WHERE
+	had.audit_batch_number IN ( '2a14e267-a9be-414a-9981-8349b7b09469', '22cfc0f4-971a-45c0-95dd-287cfd366ca9', '42279433-482a-47fb-89c1-b81079057783', '564f9667-67e7-42ff-ac08-3bf7e6a2b4b3', '172fb3ef-3c50-46b0-887d-ed0db6349fe2', '471e9b5e-8fcc-4c45-90c8-eadb0e60ccb8', '10013b7c-921b-4dbb-91b9-292e510bbce8', 'b7f83edf-b8b4-44f9-9e15-baa3660aebf8', 'ee8db029-4ad7-4496-9078-29c1d92c19e9', '8a04fcc7-e31f-437f-a9ff-6fdef81fc687', '' ) 
+	AND (
+	hado.use_entity_id_flag = 0 
+	OR ( CASE WHEN had.table_name = 'hmnt_audit_op_config' THEN had.entity_id = 172033160660127746 END ))</t>
+  </si>
+  <si>
+    <t>159332009760137286</t>
+  </si>
+  <si>
+    <t>hpfm_lov-14</t>
+  </si>
+  <si>
     <t>HMNT.AUDIT_OP.TYPE</t>
   </si>
   <si>
@@ -2383,7 +2456,152 @@
     <t>Operation Audit Type</t>
   </si>
   <si>
-    <t>hpfm_lov-14</t>
+    <t>hpfm_lov-15</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP_CONFIG</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>操作审计列表</t>
+  </si>
+  <si>
+    <t>/v1/{organizationId}/audit-op-configs/page</t>
+  </si>
+  <si>
+    <t>hpfm_lov-16</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP_CONFIG.TEST</t>
+  </si>
+  <si>
+    <t>操作审计配置-测试</t>
+  </si>
+  <si>
+    <t>/v1/audit-op-configs</t>
+  </si>
+  <si>
+    <t>hpfm_lov-17</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP_DATA_REL.COLUMN</t>
+  </si>
+  <si>
+    <t>操作审计配置数据关联-字段</t>
+  </si>
+  <si>
+    <t>SELECT
+	hec.column_name,
+	hec.column_comment 
+FROM
+	hpfm_entity_column hec
+	JOIN hpfm_entity_table het ON het.entity_table_id = hec.entity_table_id 
+WHERE
+	het.table_name = #{tableName}
+&lt;if test ="columnName != null and columnName != ''"&gt;
+    &lt;bind name="columnNameLike" value="'%' + columnName + '%'"/&gt;
+		AND hec.column_name like #{columnNameLike}
+&lt;/if&gt;
+&lt;if test ="columnComment != null and columnComment != ''"&gt;
+    &lt;bind name="columnCommentLike" value="'%' + columnComment + '%'"/&gt;
+		AND hec.column_comment like #{columnCommentLike}
+&lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>hpfm_lov-18</t>
+  </si>
+  <si>
+    <t>HMNT.AUDIT_OP_DATA_REL.TABLE</t>
+  </si>
+  <si>
+    <t>操作审计配置数据关联-表</t>
+  </si>
+  <si>
+    <t>操作审计配置数据关联</t>
+  </si>
+  <si>
+    <t>SELECT
+	het.entity_table_id,
+	het.service_name,
+	het.table_name,
+	het.table_comment 
+FROM
+	hpfm_entity_table het 
+WHERE
+        1=1
+	&lt;if test="type != null  and type == 'target'"&gt;
+	AND het.table_name NOT IN (
+	SELECT
+		IFNULL(haodr.source_table_name  , '') 
+	FROM
+		hmnt_audit_op_data_rel haodr 
+	WHERE
+		haodr.tenant_id = #{tenantId} 
+		AND haodr.audit_op_config_id = #{auditOpConfigId})
+		AND het.table_name NOT IN (
+		SELECT
+			IFNULL(haodr.target_table_name  , '')  
+		FROM
+			hmnt_audit_op_data_rel haodr 
+		WHERE
+			haodr.tenant_id = #{tenantId} 
+			AND haodr.audit_op_config_id = #{auditOpConfigId})
+	&lt;/if&gt;
+	&lt;if test="type != null  and type == 'source'"&gt;
+	AND (het.table_name IN (
+			SELECT
+				IFNULL(haodr.target_table_name , '')
+			FROM
+				hmnt_audit_op_data_rel haodr 
+			WHERE
+				haodr.tenant_id = #{tenantId} 
+				AND haodr.audit_op_config_id = #{auditOpConfigId}
+				&lt;if test="auditColumnRelId != null  and auditColumnRelId != ''"&gt;
+				AND haodr.audit_column_rel_id != #{auditColumnRelId}
+				&lt;/if&gt;
+				)
+				OR het.table_name IN (
+				SELECT
+					IFNULL(haodr.source_table_name , '') 
+				FROM
+					hmnt_audit_op_data_rel haodr 
+				WHERE
+					haodr.tenant_id = #{tenantId} 
+					AND haodr.audit_op_config_id = #{auditOpConfigId}
+					&lt;if test="auditColumnRelId != null  and auditColumnRelId != ''"&gt;
+					AND haodr.audit_column_rel_id != #{auditColumnRelId}
+					&lt;/if&gt;
+				)
+				OR NOT EXISTS (
+					SELECT
+						1 
+					FROM
+						hmnt_audit_op_data_rel haodr 
+					WHERE
+						haodr.tenant_id = #{tenantId}  
+						AND haodr.audit_op_config_id = #{auditOpConfigId})
+		)
+       &lt;/if&gt;
+	&lt;if test="serviceName != null  and serviceName != ''"&gt;
+		&lt;bind name="serviceNameLike" value="'%' + serviceName + '%'"/&gt;
+		AND het.service_name like #{serviceNameLike}
+	&lt;/if&gt;
+	&lt;if test ="tableName != null and tableName != ''"&gt;
+    &lt;bind name="tableNameLike" value="'%' + tableName + '%'"/&gt;
+		AND het.table_name like #{tableNameLike}
+	&lt;/if&gt;
+	&lt;if test ="tableComment != null and tableComment != ''"&gt;
+			&lt;bind name="tableCommentLike" value="'%' + tableComment + '%'"/&gt;
+			AND het.table_name like #{tableCommentLike}
+	&lt;/if&gt;</t>
+  </si>
+  <si>
+    <t>auditOpConfigId,auditColumnRelId</t>
+  </si>
+  <si>
+    <t>hpfm_lov-19</t>
   </si>
   <si>
     <t>HMNT.AUDIT_RESULT</t>
@@ -2395,7 +2613,7 @@
     <t>Operational audit results</t>
   </si>
   <si>
-    <t>hpfm_lov-15</t>
+    <t>hpfm_lov-20</t>
   </si>
   <si>
     <t>HMNT.COLUMN.DISPLAY_TYPE</t>
@@ -2407,7 +2625,7 @@
     <t>Field Display Type</t>
   </si>
   <si>
-    <t>hpfm_lov-16</t>
+    <t>hpfm_lov-21</t>
   </si>
   <si>
     <t>HMNT.DATA_AUDIT_TYPE</t>
@@ -2419,7 +2637,7 @@
     <t>Data Audit Type</t>
   </si>
   <si>
-    <t>hpfm_lov-17</t>
+    <t>hpfm_lov-22</t>
   </si>
   <si>
     <t>HMNT.DOCUMENT</t>
@@ -2682,28 +2900,52 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-37</t>
+    <t>hpfm_lov_view_header-42</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-38</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-39</t>
+    <t>hpfm_lov_view_header-43</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-44</t>
   </si>
   <si>
     <t>operationalContent</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-40</t>
+    <t>hpfm_lov_view_header-45</t>
   </si>
   <si>
     <t>tableName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-41</t>
+    <t>hpfm_lov_view_header-46</t>
+  </si>
+  <si>
+    <t>auditDataConfigLineId</t>
+  </si>
+  <si>
+    <t>columnName</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-47</t>
+  </si>
+  <si>
+    <t>auditContent</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-48</t>
+  </si>
+  <si>
+    <t>columnComment</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-49</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-50</t>
   </si>
   <si>
     <t>审计数据字段展示类型</t>
@@ -2724,7 +2966,7 @@
     <t>Select field display type</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-42</t>
+    <t>hpfm_lov_view_header-51</t>
   </si>
   <si>
     <t>documentName</t>
@@ -2772,7 +3014,7 @@
     <t>source_code</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-45</t>
+    <t>hpfm_lov_view_line-54</t>
   </si>
   <si>
     <t>角色编码</t>
@@ -2787,7 +3029,19 @@
     <t>300</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-46</t>
+    <t>hpfm_lov_view_line-55</t>
+  </si>
+  <si>
+    <t>角色路径</t>
+  </si>
+  <si>
+    <t>levelPath</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-56</t>
   </si>
   <si>
     <t>角色名称</t>
@@ -2799,19 +3053,19 @@
     <t>200</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-47</t>
+    <t>hpfm_lov_view_line-57</t>
   </si>
   <si>
     <t>Role code</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-48</t>
+    <t>hpfm_lov_view_line-58</t>
   </si>
   <si>
     <t>Role Name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-49</t>
+    <t>hpfm_lov_view_line-59</t>
   </si>
   <si>
     <t>审计类型</t>
@@ -2829,13 +3083,13 @@
     <t>SELECT</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-50</t>
+    <t>hpfm_lov_view_line-60</t>
   </si>
   <si>
     <t>auditTypeMeaning</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-51</t>
+    <t>hpfm_lov_view_line-61</t>
   </si>
   <si>
     <t>操作内容</t>
@@ -2844,7 +3098,7 @@
     <t>Operation content</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-52</t>
+    <t>hpfm_lov_view_line-62</t>
   </si>
   <si>
     <t>展示名称</t>
@@ -2856,7 +3110,7 @@
     <t>displayName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-53</t>
+    <t>hpfm_lov_view_line-63</t>
   </si>
   <si>
     <t>服务名称</t>
@@ -2868,7 +3122,7 @@
     <t>serviceName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-54</t>
+    <t>hpfm_lov_view_line-64</t>
   </si>
   <si>
     <t>表名称</t>
@@ -2877,19 +3131,79 @@
     <t>Table name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-55</t>
+    <t>hpfm_lov_view_line-65</t>
+  </si>
+  <si>
+    <t>列名称</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-66</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>hpfm_lov_view_line-67</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-68</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-69</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-70</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-71</t>
+  </si>
+  <si>
+    <t>entityTableId</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-72</t>
+  </si>
+  <si>
+    <t>服务名</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-73</t>
+  </si>
+  <si>
+    <t>tableComment</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-74</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-75</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-56</t>
+    <t>hpfm_lov_view_line-76</t>
   </si>
   <si>
     <t>类型</t>
@@ -2898,7 +3212,7 @@
     <t>Types Of</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-57</t>
+    <t>hpfm_lov_view_line-77</t>
   </si>
   <si>
     <t>单据审计编码</t>
@@ -2910,7 +3224,7 @@
     <t>documentCode</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-58</t>
+    <t>hpfm_lov_view_line-78</t>
   </si>
   <si>
     <t>单据审计名称</t>
@@ -2919,7 +3233,7 @@
     <t>Document audit name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-59</t>
+    <t>hpfm_lov_view_line-79</t>
   </si>
   <si>
     <t>租户名称</t>
@@ -2929,43 +3243,13 @@
   </si>
   <si>
     <t>tenantName</t>
-  </si>
-  <si>
-    <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
-SELECT 
-	ir.id,
-	ir.code,
-	htt.tenant_name,
-	irt.name
-FROM iam_role ir
-JOIN iam_role_tl irt ON ir.id = irt.id AND irt.lang = #{lang}
-JOIN hpfm_tenant_tl htt ON htt.tenant_id = ir.h_tenant_id AND htt.lang = #{lang}
-&lt;where&gt;
-&lt;if test="excludeConfigured"&gt;
-NOT EXISTS(SELECT 1 
-		    FROM hmnt_audit_op_config haoc 
-		    WHERE haoc.role_id = ir.id
-			 AND haoc.tenant_id = #{tenantId})
-&lt;/if&gt;
-&lt;if test="name != null and name != ''"&gt;
-  &lt;bind name="nameLike" value="'%' + name + '%'"/&gt;
-	AND ir.name LIKE #{nameLike}
-&lt;/if&gt;
-&lt;if test="code != null and code != ''"&gt;
-  &lt;bind name="codeLike" value="'%' + code + '%'"/&gt;
-	AND ir.code LIKE #{codeLike}
-&lt;/if&gt;
-&lt;if test="tenantId != null"&gt;
-	AND ir.h_tenant_id = #{tenantId}
-&lt;/if&gt;
-&lt;/where&gt;</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -3085,184 +3369,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3403,7 +3657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3455,36 +3709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3500,13 +3724,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3846,36 +4097,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3884,21 +4135,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4009,11 +4260,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4051,19 +4302,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4087,45 +4338,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4135,13 +4380,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4162,10 +4407,10 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4214,7 +4459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="409.5">
+    <row r="8">
       <c r="E8" t="s">
         <v>79</v>
       </c>
@@ -4239,43 +4484,43 @@
       <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="62" t="s">
-        <v>294</v>
+      <c r="Q8" t="s">
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
         <v>88</v>
       </c>
-      <c r="Y8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>87</v>
-      </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>81</v>
@@ -4284,10 +4529,10 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -4296,36 +4541,42 @@
         <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
+        <v>88</v>
       </c>
       <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
         <v>88</v>
       </c>
-      <c r="Y9" t="s">
-        <v>85</v>
-      </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="E10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>81</v>
@@ -4334,10 +4585,10 @@
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
         <v>85</v>
@@ -4346,77 +4597,77 @@
         <v>85</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U10" t="s">
         <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
         <v>85</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" t="s">
         <v>90</v>
       </c>
-      <c r="AC10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
         <v>105</v>
       </c>
-      <c r="I11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>81</v>
@@ -4425,10 +4676,10 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4437,200 +4688,230 @@
         <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s">
         <v>85</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" t="s">
+        <v>88</v>
+      </c>
+      <c r="X13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13" t="s">
         <v>90</v>
       </c>
-      <c r="AC12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s">
         <v>105</v>
       </c>
-      <c r="I13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N13" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" t="s">
-        <v>86</v>
-      </c>
-      <c r="V13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB13" t="s">
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>87</v>
+      </c>
+      <c r="W15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA15" t="s">
         <v>90</v>
       </c>
-      <c r="AC13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
         <v>121</v>
       </c>
-      <c r="M14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" t="s">
-        <v>86</v>
-      </c>
-      <c r="V14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB14" t="s">
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="s">
         <v>90</v>
       </c>
-      <c r="AC14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" t="s">
-        <v>85</v>
-      </c>
-      <c r="U15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" t="s">
-        <v>86</v>
-      </c>
-      <c r="V16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>89</v>
-      </c>
       <c r="AB16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
         <v>81</v>
@@ -4639,10 +4920,10 @@
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s">
         <v>85</v>
@@ -4651,111 +4932,142 @@
         <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="W17" t="s">
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
         <v>85</v>
       </c>
+      <c r="Z17" t="s">
+        <v>88</v>
+      </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>87</v>
+      </c>
+      <c r="W18" t="s">
+        <v>88</v>
+      </c>
+      <c r="X18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA18" t="s">
         <v>90</v>
       </c>
-      <c r="AC17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>139</v>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="R19" t="s">
-        <v>147</v>
-      </c>
-      <c r="S19" t="s">
         <v>148</v>
       </c>
-      <c r="T19" t="s">
-        <v>71</v>
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
       </c>
       <c r="U19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>87</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="str">
-        <f>值集数据!$E$11</f>
-        <v>hpfm_lov-11</v>
+      <c r="F20" t="s">
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
         <v>151</v>
@@ -4769,32 +5081,34 @@
       <c r="N20" t="s">
         <v>85</v>
       </c>
-      <c r="P20" t="s">
+      <c r="U20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="T20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
-        <v>90</v>
-      </c>
-      <c r="V20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="E21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" t="str">
-        <f>值集数据!$E$11</f>
-        <v>hpfm_lov-11</v>
+      <c r="F21" t="s">
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
         <v>155</v>
@@ -4808,38 +5122,43 @@
       <c r="N21" t="s">
         <v>85</v>
       </c>
-      <c r="P21" t="s">
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="T21" t="s">
-        <v>86</v>
-      </c>
-      <c r="U21" t="s">
-        <v>90</v>
-      </c>
-      <c r="V21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="E22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" t="str">
-        <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
+      <c r="F22" t="s">
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
         <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s">
         <v>85</v>
@@ -4847,116 +5166,118 @@
       <c r="N22" t="s">
         <v>85</v>
       </c>
-      <c r="P22" t="s">
-        <v>153</v>
-      </c>
-      <c r="T22" t="s">
-        <v>86</v>
+      <c r="Q22" t="s">
+        <v>161</v>
       </c>
       <c r="U22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" t="s">
         <v>90</v>
       </c>
-      <c r="V22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="E23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" t="str">
-        <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" t="s">
-        <v>162</v>
-      </c>
-      <c r="M23" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" t="s">
-        <v>157</v>
-      </c>
-      <c r="T23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" t="s">
-        <v>90</v>
-      </c>
-      <c r="V23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="E24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" t="str">
-        <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s" s="44">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s" s="45">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s" s="46">
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+      <c r="H24" t="s" s="47">
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" t="s">
-        <v>85</v>
-      </c>
-      <c r="N24" t="s">
-        <v>85</v>
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s" s="48">
+        <v>62</v>
+      </c>
+      <c r="N24" t="s" s="49">
+        <v>63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="Q24" t="s" s="50">
+        <v>173</v>
+      </c>
+      <c r="R24" t="s">
+        <v>174</v>
+      </c>
+      <c r="S24" t="s">
+        <v>175</v>
       </c>
       <c r="T24" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" t="str">
-        <f>值集数据!$E$13</f>
-        <v>hpfm_lov-13</v>
+        <v>176</v>
+      </c>
+      <c r="F25" t="n">
+        <f>值集数据!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
         <v>85</v>
@@ -4965,115 +5286,115 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="T25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" t="str">
+        <v>176</v>
+      </c>
+      <c r="F26" t="n">
+        <f>值集数据!$E$11</f>
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s">
+        <v>184</v>
+      </c>
+      <c r="T26" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="n">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" t="s">
-        <v>85</v>
-      </c>
-      <c r="P26" t="s">
-        <v>153</v>
-      </c>
-      <c r="T26" t="s">
-        <v>86</v>
-      </c>
-      <c r="U26" t="s">
-        <v>90</v>
-      </c>
-      <c r="V26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="E27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="s">
+        <v>180</v>
+      </c>
+      <c r="T27" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="n">
         <f>值集数据!$E$14</f>
-        <v>hpfm_lov-14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P27" t="s">
-        <v>157</v>
-      </c>
-      <c r="T27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U27" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="E28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
         <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s">
         <v>85</v>
@@ -5082,37 +5403,37 @@
         <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
+        <v>176</v>
+      </c>
+      <c r="F29" t="n">
+        <f>值集数据!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
         <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s">
         <v>85</v>
@@ -5121,1381 +5442,2329 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="T29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
+        <v>176</v>
+      </c>
+      <c r="F30" t="n">
+        <f>值集数据!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
         <v>123</v>
       </c>
       <c r="H30" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" t="s">
+        <v>197</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30" t="s">
+        <v>91</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" t="n">
+        <f>值集数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s">
         <v>180</v>
       </c>
-      <c r="I30" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" t="s">
-        <v>182</v>
-      </c>
-      <c r="M30" t="s">
-        <v>85</v>
-      </c>
-      <c r="N30" t="s">
-        <v>85</v>
-      </c>
-      <c r="P30" t="s">
-        <v>166</v>
-      </c>
-      <c r="T30" t="s">
-        <v>86</v>
-      </c>
-      <c r="U30" t="s">
-        <v>90</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="T31" t="s">
+        <v>87</v>
+      </c>
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" t="n">
+        <f>值集数据!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="s">
+        <v>184</v>
+      </c>
+      <c r="T32" t="s">
+        <v>87</v>
+      </c>
+      <c r="U32" t="s">
+        <v>91</v>
+      </c>
+      <c r="V32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s">
+        <v>180</v>
+      </c>
+      <c r="T33" t="s">
+        <v>87</v>
+      </c>
+      <c r="U33" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" t="s">
+        <v>87</v>
+      </c>
+      <c r="U34" t="s">
+        <v>91</v>
+      </c>
+      <c r="V34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>193</v>
+      </c>
+      <c r="T35" t="s">
+        <v>87</v>
+      </c>
+      <c r="U35" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" t="s">
+        <v>212</v>
+      </c>
+      <c r="M36" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" t="s">
+        <v>197</v>
+      </c>
+      <c r="T36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U36" t="s">
+        <v>91</v>
+      </c>
+      <c r="V36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="n">
+        <f>值集数据!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" t="s">
+        <v>215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s">
+        <v>87</v>
+      </c>
+      <c r="T37" t="s">
+        <v>87</v>
+      </c>
+      <c r="U37" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="n">
+        <f>值集数据!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" t="s">
+        <v>219</v>
+      </c>
+      <c r="T38" t="s">
+        <v>87</v>
+      </c>
+      <c r="U38" t="s">
+        <v>91</v>
+      </c>
+      <c r="V38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="n">
+        <f>值集数据!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="s">
+        <v>223</v>
+      </c>
+      <c r="T39" t="s">
+        <v>87</v>
+      </c>
+      <c r="U39" t="s">
+        <v>91</v>
+      </c>
+      <c r="V39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s" s="51">
+        <v>225</v>
+      </c>
+      <c r="E41" t="s" s="52">
+        <v>226</v>
+      </c>
+      <c r="F41" t="s" s="53">
+        <v>227</v>
+      </c>
+      <c r="G41" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" t="s" s="54">
+        <v>230</v>
+      </c>
+      <c r="J41" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K41" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41" t="s">
+        <v>231</v>
+      </c>
+      <c r="O41" t="s">
+        <v>232</v>
+      </c>
+      <c r="P41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" t="s">
+        <v>235</v>
+      </c>
+      <c r="S41" t="s">
+        <v>236</v>
+      </c>
+      <c r="T41" t="s">
+        <v>237</v>
+      </c>
+      <c r="U41" t="s">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" t="n">
+        <f>值集数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" t="s">
+        <v>239</v>
+      </c>
+      <c r="R42" t="s">
+        <v>180</v>
+      </c>
+      <c r="S42" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42" t="s">
+        <v>87</v>
+      </c>
+      <c r="V42" t="s">
+        <v>91</v>
+      </c>
+      <c r="W42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="E31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J31" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" t="s">
-        <v>85</v>
-      </c>
-      <c r="P31" t="s">
-        <v>170</v>
-      </c>
-      <c r="T31" t="s">
-        <v>86</v>
-      </c>
-      <c r="U31" t="s">
-        <v>90</v>
-      </c>
-      <c r="V31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" t="s">
-        <v>188</v>
-      </c>
-      <c r="M32" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" t="s">
-        <v>86</v>
-      </c>
-      <c r="T32" t="s">
-        <v>86</v>
-      </c>
-      <c r="U32" t="s">
-        <v>90</v>
-      </c>
-      <c r="V32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" t="s">
-        <v>191</v>
-      </c>
-      <c r="M33" t="s">
-        <v>85</v>
-      </c>
-      <c r="N33" t="s">
-        <v>85</v>
-      </c>
-      <c r="P33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T33" t="s">
-        <v>86</v>
-      </c>
-      <c r="U33" t="s">
-        <v>90</v>
-      </c>
-      <c r="V33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="E34" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" t="str">
-        <f>值集数据!$E$16</f>
-        <v>hpfm_lov-16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J34" t="s">
-        <v>195</v>
-      </c>
-      <c r="M34" t="s">
-        <v>85</v>
-      </c>
-      <c r="N34" t="s">
-        <v>85</v>
-      </c>
-      <c r="P34" t="s">
-        <v>196</v>
-      </c>
-      <c r="T34" t="s">
-        <v>86</v>
-      </c>
-      <c r="U34" t="s">
-        <v>90</v>
-      </c>
-      <c r="V34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" t="s">
-        <v>68</v>
-      </c>
-      <c r="M36" t="s">
-        <v>69</v>
-      </c>
-      <c r="N36" t="s">
-        <v>204</v>
-      </c>
-      <c r="O36" t="s">
-        <v>205</v>
-      </c>
-      <c r="P36" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>207</v>
-      </c>
-      <c r="R36" t="s">
-        <v>208</v>
-      </c>
-      <c r="S36" t="s">
-        <v>209</v>
-      </c>
-      <c r="T36" t="s">
-        <v>210</v>
-      </c>
-      <c r="U36" t="s">
-        <v>71</v>
-      </c>
-      <c r="V36" t="s">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" t="str">
-        <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
-      </c>
-      <c r="J37" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" t="s">
-        <v>212</v>
-      </c>
-      <c r="R37" t="s">
-        <v>153</v>
-      </c>
-      <c r="S37" t="s">
-        <v>85</v>
-      </c>
-      <c r="U37" t="s">
-        <v>86</v>
-      </c>
-      <c r="V37" t="s">
-        <v>90</v>
-      </c>
-      <c r="W37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="E38" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="I43" t="n">
         <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" t="s">
-        <v>212</v>
-      </c>
-      <c r="R38" t="s">
-        <v>153</v>
-      </c>
-      <c r="S38" t="s">
-        <v>85</v>
-      </c>
-      <c r="U38" t="s">
-        <v>86</v>
-      </c>
-      <c r="V38" t="s">
-        <v>90</v>
-      </c>
-      <c r="W38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="E39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" t="s">
+        <v>239</v>
+      </c>
+      <c r="R43" t="s">
+        <v>180</v>
+      </c>
+      <c r="S43" t="s">
+        <v>85</v>
+      </c>
+      <c r="U43" t="s">
+        <v>87</v>
+      </c>
+      <c r="V43" t="s">
+        <v>91</v>
+      </c>
+      <c r="W43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="I39" t="str">
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" t="n">
         <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
-      </c>
-      <c r="J39" t="s">
-        <v>85</v>
-      </c>
-      <c r="K39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M44" t="s">
+        <v>242</v>
+      </c>
+      <c r="N44" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" t="s">
         <v>102</v>
       </c>
-      <c r="M39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O39" t="s">
-        <v>100</v>
-      </c>
-      <c r="R39" t="s">
-        <v>153</v>
-      </c>
-      <c r="S39" t="s">
-        <v>85</v>
-      </c>
-      <c r="U39" t="s">
-        <v>86</v>
-      </c>
-      <c r="V39" t="s">
-        <v>90</v>
-      </c>
-      <c r="W39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="E40" t="s">
-        <v>216</v>
-      </c>
-      <c r="F40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="R44" t="s">
+        <v>180</v>
+      </c>
+      <c r="S44" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" t="s">
+        <v>87</v>
+      </c>
+      <c r="V44" t="s">
+        <v>91</v>
+      </c>
+      <c r="W44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" t="n">
         <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
-      </c>
-      <c r="J40" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L40" t="s">
-        <v>113</v>
-      </c>
-      <c r="M40" t="s">
-        <v>217</v>
-      </c>
-      <c r="N40" t="s">
-        <v>110</v>
-      </c>
-      <c r="O40" t="s">
-        <v>111</v>
-      </c>
-      <c r="R40" t="s">
-        <v>153</v>
-      </c>
-      <c r="S40" t="s">
-        <v>85</v>
-      </c>
-      <c r="U40" t="s">
-        <v>86</v>
-      </c>
-      <c r="V40" t="s">
-        <v>90</v>
-      </c>
-      <c r="W40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="E41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="J41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" t="s">
-        <v>221</v>
-      </c>
-      <c r="M41" t="s">
-        <v>222</v>
-      </c>
-      <c r="N41" t="s">
-        <v>223</v>
-      </c>
-      <c r="O41" t="s">
-        <v>224</v>
-      </c>
-      <c r="R41" t="s">
-        <v>153</v>
-      </c>
-      <c r="S41" t="s">
-        <v>85</v>
-      </c>
-      <c r="U41" t="s">
-        <v>86</v>
-      </c>
-      <c r="V41" t="s">
-        <v>90</v>
-      </c>
-      <c r="W41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="E42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" t="s">
-        <v>133</v>
-      </c>
-      <c r="I42" t="str">
-        <f>值集数据!$E$17</f>
-        <v>hpfm_lov-17</v>
-      </c>
-      <c r="J42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" t="s">
-        <v>226</v>
-      </c>
-      <c r="R42" t="s">
-        <v>153</v>
-      </c>
-      <c r="S42" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" t="s">
-        <v>86</v>
-      </c>
-      <c r="V42" t="s">
-        <v>90</v>
-      </c>
-      <c r="W42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" t="s">
-        <v>232</v>
-      </c>
-      <c r="I44" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="J44" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" t="s">
-        <v>234</v>
-      </c>
-      <c r="L44" t="s">
-        <v>145</v>
-      </c>
-      <c r="M44" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="N44" t="s">
-        <v>236</v>
-      </c>
-      <c r="O44" t="s">
-        <v>237</v>
-      </c>
-      <c r="P44" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>71</v>
-      </c>
-      <c r="R44" t="s">
-        <v>239</v>
-      </c>
-      <c r="S44" t="s">
-        <v>240</v>
-      </c>
-      <c r="T44" t="s">
-        <v>77</v>
-      </c>
-      <c r="U44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="E45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov_view_header-37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" t="str">
-        <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="M45" t="s">
         <v>244</v>
       </c>
       <c r="N45" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
-      </c>
-      <c r="P45" t="s">
+        <v>114</v>
+      </c>
+      <c r="R45" t="s">
+        <v>180</v>
+      </c>
+      <c r="S45" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" t="s">
+        <v>87</v>
+      </c>
+      <c r="V45" t="s">
+        <v>91</v>
+      </c>
+      <c r="W45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
         <v>245</v>
       </c>
-      <c r="Q45" t="s">
-        <v>86</v>
-      </c>
-      <c r="T45" t="s">
-        <v>90</v>
-      </c>
-      <c r="U45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" t="s">
+        <v>85</v>
+      </c>
+      <c r="L46" t="s">
         <v>246</v>
       </c>
-      <c r="F46" t="str">
-        <f>值集数据!$E$37</f>
-        <v>hpfm_lov_view_header-37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="M46" t="s">
+        <v>247</v>
+      </c>
+      <c r="R46" t="s">
+        <v>180</v>
+      </c>
+      <c r="S46" t="s">
+        <v>85</v>
+      </c>
+      <c r="U46" t="s">
+        <v>87</v>
+      </c>
+      <c r="V46" t="s">
+        <v>91</v>
+      </c>
+      <c r="W46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47" t="s">
+        <v>249</v>
+      </c>
+      <c r="R47" t="s">
+        <v>180</v>
+      </c>
+      <c r="S47" t="s">
+        <v>85</v>
+      </c>
+      <c r="U47" t="s">
+        <v>87</v>
+      </c>
+      <c r="V47" t="s">
+        <v>91</v>
+      </c>
+      <c r="W47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" t="n">
+        <f>值集数据!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" t="s">
+        <v>247</v>
+      </c>
+      <c r="M48" t="s">
+        <v>251</v>
+      </c>
+      <c r="N48" t="s">
+        <v>137</v>
+      </c>
+      <c r="R48" t="s">
+        <v>180</v>
+      </c>
+      <c r="S48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U48" t="s">
+        <v>87</v>
+      </c>
+      <c r="V48" t="s">
+        <v>91</v>
+      </c>
+      <c r="W48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" t="s">
+        <v>244</v>
+      </c>
+      <c r="M49" t="s">
+        <v>244</v>
+      </c>
+      <c r="N49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R49" t="s">
+        <v>180</v>
+      </c>
+      <c r="S49" t="s">
+        <v>85</v>
+      </c>
+      <c r="U49" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" t="s">
+        <v>91</v>
+      </c>
+      <c r="W49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I50" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" t="s">
+        <v>256</v>
+      </c>
+      <c r="M50" t="s">
+        <v>257</v>
+      </c>
+      <c r="N50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O50" t="s">
+        <v>259</v>
+      </c>
+      <c r="R50" t="s">
+        <v>180</v>
+      </c>
+      <c r="S50" t="s">
+        <v>85</v>
+      </c>
+      <c r="U50" t="s">
+        <v>87</v>
+      </c>
+      <c r="V50" t="s">
+        <v>91</v>
+      </c>
+      <c r="W50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" t="s">
+        <v>261</v>
+      </c>
+      <c r="R51" t="s">
+        <v>180</v>
+      </c>
+      <c r="S51" t="s">
+        <v>85</v>
+      </c>
+      <c r="U51" t="s">
+        <v>87</v>
+      </c>
+      <c r="V51" t="s">
+        <v>91</v>
+      </c>
+      <c r="W51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" t="s" s="57">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s" s="58">
+        <v>264</v>
+      </c>
+      <c r="F53" t="s" s="59">
+        <v>265</v>
+      </c>
+      <c r="G53" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" t="s" s="60">
+        <v>230</v>
+      </c>
+      <c r="J53" t="s">
+        <v>268</v>
+      </c>
+      <c r="K53" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" t="s" s="61">
+        <v>270</v>
+      </c>
+      <c r="N53" t="s">
+        <v>271</v>
+      </c>
+      <c r="O53" t="s">
+        <v>272</v>
+      </c>
+      <c r="P53" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s">
+        <v>274</v>
+      </c>
+      <c r="S53" t="s">
+        <v>275</v>
+      </c>
+      <c r="T53" t="s">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" t="n">
+        <f>值集数据!$E$42</f>
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="n">
         <f>值集数据!$E$8</f>
-        <v>hpfm_lov-8</v>
-      </c>
-      <c r="J46" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>277</v>
+      </c>
+      <c r="K54" t="s">
+        <v>278</v>
+      </c>
+      <c r="L54" t="s">
+        <v>180</v>
+      </c>
+      <c r="M54" t="s">
+        <v>279</v>
+      </c>
+      <c r="N54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>87</v>
+      </c>
+      <c r="T54" t="s">
+        <v>91</v>
+      </c>
+      <c r="U54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" t="n">
+        <f>值集数据!$E$42</f>
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" t="n">
+        <f>值集数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" t="s">
+        <v>283</v>
+      </c>
+      <c r="N55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>87</v>
+      </c>
+      <c r="R55" t="s">
+        <v>284</v>
+      </c>
+      <c r="T55" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" t="n">
+        <f>值集数据!$E$42</f>
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" t="n">
+        <f>值集数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>286</v>
+      </c>
+      <c r="K56" t="s">
+        <v>287</v>
+      </c>
+      <c r="L56" t="s">
+        <v>184</v>
+      </c>
+      <c r="M56" t="s">
+        <v>239</v>
+      </c>
+      <c r="N56" t="s">
+        <v>87</v>
+      </c>
+      <c r="O56" t="s">
+        <v>87</v>
+      </c>
+      <c r="P56" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>87</v>
+      </c>
+      <c r="T56" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" t="n">
+        <f>值集数据!$E$43</f>
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" t="n">
+        <f>值集数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>277</v>
+      </c>
+      <c r="K57" t="s">
+        <v>290</v>
+      </c>
+      <c r="L57" t="s">
+        <v>180</v>
+      </c>
+      <c r="M57" t="s">
+        <v>279</v>
+      </c>
+      <c r="N57" t="s">
+        <v>87</v>
+      </c>
+      <c r="O57" t="s">
+        <v>87</v>
+      </c>
+      <c r="P57" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>87</v>
+      </c>
+      <c r="T57" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" t="n">
+        <f>值集数据!$E$43</f>
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" t="n">
+        <f>值集数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>286</v>
+      </c>
+      <c r="K58" t="s">
+        <v>292</v>
+      </c>
+      <c r="L58" t="s">
+        <v>184</v>
+      </c>
+      <c r="M58" t="s">
+        <v>239</v>
+      </c>
+      <c r="N58" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>87</v>
+      </c>
+      <c r="T58" t="s">
+        <v>91</v>
+      </c>
+      <c r="U58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" t="n">
+        <f>值集数据!$E$44</f>
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>294</v>
+      </c>
+      <c r="K59" t="s">
+        <v>295</v>
+      </c>
+      <c r="L59" t="s">
+        <v>180</v>
+      </c>
+      <c r="M59" t="s">
+        <v>296</v>
+      </c>
+      <c r="N59" t="s">
+        <v>87</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>87</v>
+      </c>
+      <c r="R59" t="s">
+        <v>298</v>
+      </c>
+      <c r="S59" t="s">
+        <v>123</v>
+      </c>
+      <c r="T59" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" t="n">
+        <f>值集数据!$E$44</f>
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>294</v>
+      </c>
+      <c r="K60" t="s">
+        <v>295</v>
+      </c>
+      <c r="L60" t="s">
+        <v>184</v>
+      </c>
+      <c r="M60" t="s">
+        <v>300</v>
+      </c>
+      <c r="N60" t="s">
+        <v>85</v>
+      </c>
+      <c r="O60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>87</v>
+      </c>
+      <c r="T60" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" t="n">
+        <f>值集数据!$E$44</f>
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" t="n">
+        <f>值集数据!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s">
+        <v>303</v>
+      </c>
+      <c r="L61" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" t="s">
+        <v>242</v>
+      </c>
+      <c r="N61" t="s">
+        <v>87</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>87</v>
+      </c>
+      <c r="T61" t="s">
+        <v>91</v>
+      </c>
+      <c r="U61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" t="n">
+        <f>值集数据!$E$45</f>
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" t="n">
+        <f>值集数据!$E$12</f>
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>305</v>
+      </c>
+      <c r="K62" t="s">
+        <v>306</v>
+      </c>
+      <c r="L62" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N62" t="s">
+        <v>87</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>87</v>
+      </c>
+      <c r="T62" t="s">
+        <v>91</v>
+      </c>
+      <c r="U62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" t="n">
+        <f>值集数据!$E$45</f>
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" t="n">
+        <f>值集数据!$E$12</f>
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>309</v>
+      </c>
+      <c r="K63" t="s">
+        <v>310</v>
+      </c>
+      <c r="L63" t="s">
+        <v>180</v>
+      </c>
+      <c r="M63" t="s">
+        <v>311</v>
+      </c>
+      <c r="N63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>87</v>
+      </c>
+      <c r="T63" t="s">
+        <v>91</v>
+      </c>
+      <c r="U63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" t="n">
+        <f>值集数据!$E$45</f>
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" t="n">
+        <f>值集数据!$E$12</f>
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>313</v>
+      </c>
+      <c r="K64" t="s">
+        <v>314</v>
+      </c>
+      <c r="L64" t="s">
+        <v>184</v>
+      </c>
+      <c r="M64" t="s">
+        <v>244</v>
+      </c>
+      <c r="N64" t="s">
+        <v>87</v>
+      </c>
+      <c r="O64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>87</v>
+      </c>
+      <c r="T64" t="s">
+        <v>91</v>
+      </c>
+      <c r="U64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" t="n">
+        <f>值集数据!$E$46</f>
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>316</v>
+      </c>
+      <c r="K65" t="s">
+        <v>316</v>
+      </c>
+      <c r="L65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M65" t="s">
         <v>247</v>
       </c>
-      <c r="K46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L46" t="s">
-        <v>157</v>
-      </c>
-      <c r="M46" t="s">
-        <v>212</v>
-      </c>
-      <c r="N46" t="s">
-        <v>86</v>
-      </c>
-      <c r="O46" t="s">
-        <v>86</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="N65" t="s">
+        <v>87</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>87</v>
+      </c>
+      <c r="R65" t="s">
+        <v>284</v>
+      </c>
+      <c r="T65" t="s">
+        <v>91</v>
+      </c>
+      <c r="U65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" t="n">
+        <f>值集数据!$E$46</f>
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" t="n">
+        <f>值集数据!$E$13</f>
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>305</v>
+      </c>
+      <c r="K66" t="s">
+        <v>319</v>
+      </c>
+      <c r="L66" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" t="s">
+        <v>307</v>
+      </c>
+      <c r="N66" t="s">
+        <v>87</v>
+      </c>
+      <c r="O66" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>87</v>
+      </c>
+      <c r="R66" t="s">
+        <v>284</v>
+      </c>
+      <c r="T66" t="s">
+        <v>91</v>
+      </c>
+      <c r="U66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" t="n">
+        <f>值集数据!$E$47</f>
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>321</v>
+      </c>
+      <c r="K67" t="s">
+        <v>321</v>
+      </c>
+      <c r="L67" t="s">
+        <v>184</v>
+      </c>
+      <c r="M67" t="s">
         <v>249</v>
       </c>
-      <c r="Q46" t="s">
-        <v>86</v>
-      </c>
-      <c r="T46" t="s">
-        <v>90</v>
-      </c>
-      <c r="U46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="E47" t="s">
-        <v>250</v>
-      </c>
-      <c r="F47" t="str">
-        <f>值集数据!$E$38</f>
-        <v>hpfm_lov_view_header-38</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="J47" t="s">
-        <v>242</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="N67" t="s">
+        <v>87</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>87</v>
+      </c>
+      <c r="T67" t="s">
+        <v>91</v>
+      </c>
+      <c r="U67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" t="n">
+        <f>值集数据!$E$47</f>
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" t="n">
+        <f>值集数据!$E$16</f>
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>323</v>
+      </c>
+      <c r="K68" t="s">
+        <v>323</v>
+      </c>
+      <c r="L68" t="s">
+        <v>180</v>
+      </c>
+      <c r="M68" t="s">
+        <v>104</v>
+      </c>
+      <c r="N68" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>87</v>
+      </c>
+      <c r="R68" t="s">
+        <v>324</v>
+      </c>
+      <c r="T68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>325</v>
+      </c>
+      <c r="F69" t="n">
+        <f>值集数据!$E$48</f>
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" t="n">
+        <f>值集数据!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>184</v>
+      </c>
+      <c r="M69" t="s">
         <v>251</v>
       </c>
-      <c r="L47" t="s">
-        <v>153</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="N69" t="s">
+        <v>87</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>87</v>
+      </c>
+      <c r="R69" t="s">
+        <v>284</v>
+      </c>
+      <c r="T69" t="s">
+        <v>91</v>
+      </c>
+      <c r="U69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" t="n">
+        <f>值集数据!$E$48</f>
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" t="n">
+        <f>值集数据!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>327</v>
+      </c>
+      <c r="K70" t="s">
+        <v>327</v>
+      </c>
+      <c r="L70" t="s">
+        <v>180</v>
+      </c>
+      <c r="M70" t="s">
+        <v>247</v>
+      </c>
+      <c r="N70" t="s">
+        <v>87</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>87</v>
+      </c>
+      <c r="R70" t="s">
+        <v>284</v>
+      </c>
+      <c r="T70" t="s">
+        <v>91</v>
+      </c>
+      <c r="U70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>328</v>
+      </c>
+      <c r="F71" t="n">
+        <f>值集数据!$E$49</f>
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>323</v>
+      </c>
+      <c r="K71" t="s">
+        <v>323</v>
+      </c>
+      <c r="L71" t="s">
+        <v>180</v>
+      </c>
+      <c r="M71" t="s">
+        <v>329</v>
+      </c>
+      <c r="N71" t="s">
+        <v>85</v>
+      </c>
+      <c r="O71" t="s">
+        <v>85</v>
+      </c>
+      <c r="P71" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>87</v>
+      </c>
+      <c r="R71" t="s">
+        <v>324</v>
+      </c>
+      <c r="T71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>330</v>
+      </c>
+      <c r="F72" t="n">
+        <f>值集数据!$E$49</f>
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>331</v>
+      </c>
+      <c r="K72" t="s">
+        <v>331</v>
+      </c>
+      <c r="L72" t="s">
+        <v>184</v>
+      </c>
+      <c r="M72" t="s">
+        <v>311</v>
+      </c>
+      <c r="N72" t="s">
+        <v>87</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>87</v>
+      </c>
+      <c r="R72" t="s">
+        <v>284</v>
+      </c>
+      <c r="T72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>332</v>
+      </c>
+      <c r="F73" t="n">
+        <f>值集数据!$E$49</f>
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" t="s">
+        <v>197</v>
+      </c>
+      <c r="M73" t="s">
+        <v>333</v>
+      </c>
+      <c r="N73" t="s">
+        <v>85</v>
+      </c>
+      <c r="O73" t="s">
+        <v>87</v>
+      </c>
+      <c r="P73" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>87</v>
+      </c>
+      <c r="R73" t="s">
+        <v>284</v>
+      </c>
+      <c r="T73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>334</v>
+      </c>
+      <c r="F74" t="n">
+        <f>值集数据!$E$49</f>
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" t="n">
+        <f>值集数据!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>335</v>
+      </c>
+      <c r="K74" t="s">
+        <v>335</v>
+      </c>
+      <c r="L74" t="s">
+        <v>193</v>
+      </c>
+      <c r="M74" t="s">
         <v>244</v>
       </c>
-      <c r="N47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O47" t="s">
-        <v>86</v>
-      </c>
-      <c r="P47" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>86</v>
-      </c>
-      <c r="T47" t="s">
-        <v>90</v>
-      </c>
-      <c r="U47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="E48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" t="str">
-        <f>值集数据!$E$38</f>
-        <v>hpfm_lov_view_header-38</v>
-      </c>
-      <c r="G48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" t="str">
-        <f>值集数据!$E$9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="J48" t="s">
-        <v>247</v>
-      </c>
-      <c r="K48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L48" t="s">
-        <v>157</v>
-      </c>
-      <c r="M48" t="s">
-        <v>212</v>
-      </c>
-      <c r="N48" t="s">
-        <v>86</v>
-      </c>
-      <c r="O48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P48" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>86</v>
-      </c>
-      <c r="T48" t="s">
-        <v>90</v>
-      </c>
-      <c r="U48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="5:21">
-      <c r="E49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F49" t="str">
-        <f>值集数据!$E$39</f>
-        <v>hpfm_lov_view_header-39</v>
-      </c>
-      <c r="G49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" t="str">
-        <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
-      </c>
-      <c r="J49" t="s">
-        <v>255</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="N74" t="s">
+        <v>87</v>
+      </c>
+      <c r="O74" t="s">
+        <v>87</v>
+      </c>
+      <c r="P74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>87</v>
+      </c>
+      <c r="R74" t="s">
+        <v>284</v>
+      </c>
+      <c r="T74" t="s">
+        <v>91</v>
+      </c>
+      <c r="U74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75" t="n">
+        <f>值集数据!$E$50</f>
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>319</v>
+      </c>
+      <c r="K75" t="s">
+        <v>337</v>
+      </c>
+      <c r="L75" t="s">
+        <v>219</v>
+      </c>
+      <c r="M75" t="s">
+        <v>257</v>
+      </c>
+      <c r="N75" t="s">
+        <v>85</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>87</v>
+      </c>
+      <c r="T75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" t="n">
+        <f>值集数据!$E$50</f>
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" t="n">
+        <f>值集数据!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>340</v>
+      </c>
+      <c r="K76" t="s">
+        <v>341</v>
+      </c>
+      <c r="L76" t="s">
+        <v>87</v>
+      </c>
+      <c r="M76" t="s">
         <v>256</v>
       </c>
-      <c r="L49" t="s">
-        <v>153</v>
-      </c>
-      <c r="M49" t="s">
-        <v>257</v>
-      </c>
-      <c r="N49" t="s">
-        <v>86</v>
-      </c>
-      <c r="O49" t="s">
-        <v>85</v>
-      </c>
-      <c r="P49" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>86</v>
-      </c>
-      <c r="R49" t="s">
-        <v>259</v>
-      </c>
-      <c r="S49" t="s">
-        <v>115</v>
-      </c>
-      <c r="T49" t="s">
-        <v>90</v>
-      </c>
-      <c r="U49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="5:21">
-      <c r="E50" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" t="str">
-        <f>值集数据!$E$39</f>
-        <v>hpfm_lov_view_header-39</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" t="str">
-        <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>255</v>
-      </c>
-      <c r="K50" t="s">
-        <v>256</v>
-      </c>
-      <c r="L50" t="s">
-        <v>157</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="N76" t="s">
+        <v>85</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>87</v>
+      </c>
+      <c r="T76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" t="n">
+        <f>值集数据!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>343</v>
+      </c>
+      <c r="K77" t="s">
+        <v>344</v>
+      </c>
+      <c r="L77" t="s">
+        <v>180</v>
+      </c>
+      <c r="M77" t="s">
+        <v>345</v>
+      </c>
+      <c r="N77" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" t="s">
+        <v>87</v>
+      </c>
+      <c r="P77" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>87</v>
+      </c>
+      <c r="T77" t="s">
+        <v>91</v>
+      </c>
+      <c r="U77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" t="n">
+        <f>值集数据!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>347</v>
+      </c>
+      <c r="K78" t="s">
+        <v>348</v>
+      </c>
+      <c r="L78" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s">
         <v>261</v>
       </c>
-      <c r="N50" t="s">
-        <v>85</v>
-      </c>
-      <c r="O50" t="s">
-        <v>86</v>
-      </c>
-      <c r="P50" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>86</v>
-      </c>
-      <c r="T50" t="s">
-        <v>90</v>
-      </c>
-      <c r="U50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="5:21">
-      <c r="E51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" t="str">
-        <f>值集数据!$E$39</f>
-        <v>hpfm_lov_view_header-39</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" t="str">
-        <f>值集数据!$E$10</f>
-        <v>hpfm_lov-10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>263</v>
-      </c>
-      <c r="K51" t="s">
-        <v>264</v>
-      </c>
-      <c r="L51" t="s">
-        <v>166</v>
-      </c>
-      <c r="M51" t="s">
-        <v>215</v>
-      </c>
-      <c r="N51" t="s">
-        <v>86</v>
-      </c>
-      <c r="O51" t="s">
-        <v>86</v>
-      </c>
-      <c r="P51" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>86</v>
-      </c>
-      <c r="T51" t="s">
-        <v>90</v>
-      </c>
-      <c r="U51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="5:21">
-      <c r="E52" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" t="str">
-        <f>值集数据!$E$40</f>
-        <v>hpfm_lov_view_header-40</v>
-      </c>
-      <c r="G52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" t="str">
-        <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
-      </c>
-      <c r="J52" t="s">
-        <v>266</v>
-      </c>
-      <c r="K52" t="s">
-        <v>267</v>
-      </c>
-      <c r="L52" t="s">
-        <v>166</v>
-      </c>
-      <c r="M52" t="s">
-        <v>268</v>
-      </c>
-      <c r="N52" t="s">
-        <v>86</v>
-      </c>
-      <c r="O52" t="s">
-        <v>86</v>
-      </c>
-      <c r="P52" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>86</v>
-      </c>
-      <c r="T52" t="s">
-        <v>90</v>
-      </c>
-      <c r="U52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="5:21">
-      <c r="E53" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" t="str">
-        <f>值集数据!$E$40</f>
-        <v>hpfm_lov_view_header-40</v>
-      </c>
-      <c r="G53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" t="str">
-        <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
-      </c>
-      <c r="J53" t="s">
-        <v>270</v>
-      </c>
-      <c r="K53" t="s">
-        <v>271</v>
-      </c>
-      <c r="L53" t="s">
-        <v>153</v>
-      </c>
-      <c r="M53" t="s">
-        <v>272</v>
-      </c>
-      <c r="N53" t="s">
-        <v>86</v>
-      </c>
-      <c r="O53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P53" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>86</v>
-      </c>
-      <c r="T53" t="s">
-        <v>90</v>
-      </c>
-      <c r="U53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="5:21">
-      <c r="E54" t="s">
-        <v>273</v>
-      </c>
-      <c r="F54" t="str">
-        <f>值集数据!$E$40</f>
-        <v>hpfm_lov_view_header-40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" t="str">
-        <f>值集数据!$E$12</f>
-        <v>hpfm_lov-12</v>
-      </c>
-      <c r="J54" t="s">
-        <v>274</v>
-      </c>
-      <c r="K54" t="s">
-        <v>275</v>
-      </c>
-      <c r="L54" t="s">
-        <v>157</v>
-      </c>
-      <c r="M54" t="s">
-        <v>217</v>
-      </c>
-      <c r="N54" t="s">
-        <v>86</v>
-      </c>
-      <c r="O54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P54" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>86</v>
-      </c>
-      <c r="T54" t="s">
-        <v>90</v>
-      </c>
-      <c r="U54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="5:21">
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" t="str">
-        <f>值集数据!$E$41</f>
-        <v>hpfm_lov_view_header-41</v>
-      </c>
-      <c r="G55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="J55" t="s">
-        <v>277</v>
-      </c>
-      <c r="K55" t="s">
-        <v>278</v>
-      </c>
-      <c r="L55" t="s">
-        <v>192</v>
-      </c>
-      <c r="M55" t="s">
-        <v>222</v>
-      </c>
-      <c r="N55" t="s">
-        <v>85</v>
-      </c>
-      <c r="O55" t="s">
-        <v>86</v>
-      </c>
-      <c r="P55" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>86</v>
-      </c>
-      <c r="T55" t="s">
-        <v>90</v>
-      </c>
-      <c r="U55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="5:21">
-      <c r="E56" t="s">
-        <v>280</v>
-      </c>
-      <c r="F56" t="str">
-        <f>值集数据!$E$41</f>
-        <v>hpfm_lov_view_header-41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" t="str">
-        <f>值集数据!$E$15</f>
-        <v>hpfm_lov-15</v>
-      </c>
-      <c r="J56" t="s">
-        <v>281</v>
-      </c>
-      <c r="K56" t="s">
-        <v>282</v>
-      </c>
-      <c r="L56" t="s">
-        <v>86</v>
-      </c>
-      <c r="M56" t="s">
-        <v>221</v>
-      </c>
-      <c r="N56" t="s">
-        <v>85</v>
-      </c>
-      <c r="O56" t="s">
-        <v>86</v>
-      </c>
-      <c r="P56" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>86</v>
-      </c>
-      <c r="T56" t="s">
-        <v>90</v>
-      </c>
-      <c r="U56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="5:21">
-      <c r="E57" t="s">
-        <v>283</v>
-      </c>
-      <c r="F57" t="str">
-        <f>值集数据!$E$42</f>
-        <v>hpfm_lov_view_header-42</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" t="str">
-        <f>值集数据!$E$17</f>
-        <v>hpfm_lov-17</v>
-      </c>
-      <c r="J57" t="s">
-        <v>284</v>
-      </c>
-      <c r="K57" t="s">
-        <v>285</v>
-      </c>
-      <c r="L57" t="s">
-        <v>153</v>
-      </c>
-      <c r="M57" t="s">
-        <v>286</v>
-      </c>
-      <c r="N57" t="s">
-        <v>86</v>
-      </c>
-      <c r="O57" t="s">
-        <v>86</v>
-      </c>
-      <c r="P57" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>86</v>
-      </c>
-      <c r="T57" t="s">
-        <v>90</v>
-      </c>
-      <c r="U57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="5:21">
-      <c r="E58" t="s">
-        <v>287</v>
-      </c>
-      <c r="F58" t="str">
-        <f>值集数据!$E$42</f>
-        <v>hpfm_lov_view_header-42</v>
-      </c>
-      <c r="G58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" t="str">
-        <f>值集数据!$E$17</f>
-        <v>hpfm_lov-17</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="N78" t="s">
+        <v>87</v>
+      </c>
+      <c r="O78" t="s">
+        <v>87</v>
+      </c>
+      <c r="P78" t="s">
         <v>288</v>
       </c>
-      <c r="K58" t="s">
-        <v>289</v>
-      </c>
-      <c r="L58" t="s">
-        <v>157</v>
-      </c>
-      <c r="M58" t="s">
-        <v>226</v>
-      </c>
-      <c r="N58" t="s">
-        <v>86</v>
-      </c>
-      <c r="O58" t="s">
-        <v>86</v>
-      </c>
-      <c r="P58" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>86</v>
-      </c>
-      <c r="T58" t="s">
-        <v>90</v>
-      </c>
-      <c r="U58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="5:21">
-      <c r="E59" t="s">
-        <v>290</v>
-      </c>
-      <c r="F59" t="str">
-        <f>值集数据!$E$42</f>
-        <v>hpfm_lov_view_header-42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" t="str">
-        <f>值集数据!$E$17</f>
-        <v>hpfm_lov-17</v>
-      </c>
-      <c r="J59" t="s">
-        <v>291</v>
-      </c>
-      <c r="K59" t="s">
-        <v>292</v>
-      </c>
-      <c r="L59" t="s">
-        <v>85</v>
-      </c>
-      <c r="M59" t="s">
-        <v>293</v>
-      </c>
-      <c r="N59" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" t="s">
-        <v>86</v>
-      </c>
-      <c r="P59" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>86</v>
-      </c>
-      <c r="T59" t="s">
-        <v>90</v>
-      </c>
-      <c r="U59" t="s">
-        <v>96</v>
+      <c r="Q78" t="s">
+        <v>87</v>
+      </c>
+      <c r="T78" t="s">
+        <v>91</v>
+      </c>
+      <c r="U78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>349</v>
+      </c>
+      <c r="F79" t="n">
+        <f>值集数据!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" t="n">
+        <f>值集数据!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>350</v>
+      </c>
+      <c r="K79" t="s">
+        <v>351</v>
+      </c>
+      <c r="L79" t="s">
+        <v>85</v>
+      </c>
+      <c r="M79" t="s">
+        <v>352</v>
+      </c>
+      <c r="N79" t="s">
+        <v>85</v>
+      </c>
+      <c r="O79" t="s">
+        <v>87</v>
+      </c>
+      <c r="P79" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>87</v>
+      </c>
+      <c r="T79" t="s">
+        <v>91</v>
+      </c>
+      <c r="U79" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>